--- a/data/CS1_2/case18_2/case18_2_2050.xlsx
+++ b/data/CS1_2/case18_2/case18_2_2050.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\CS1_2\case18\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\CS1_2\case18_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F74F31F8-407D-4D1E-953F-B8CD728AA8DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{277D566A-9F26-421D-903F-CBDF9929B4E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4350" yWindow="1635" windowWidth="21600" windowHeight="12735" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -13720,372 +13720,372 @@
       <sheetData sheetId="2">
         <row r="2">
           <cell r="B2">
-            <v>21.265235517813686</v>
+            <v>79.134764889008622</v>
           </cell>
           <cell r="C2">
-            <v>21.822707557603447</v>
+            <v>81.209297229080946</v>
           </cell>
           <cell r="D2">
-            <v>25.992133855197721</v>
+            <v>96.725070355871821</v>
           </cell>
           <cell r="E2">
-            <v>28.280092018501545</v>
+            <v>105.23929683491863</v>
           </cell>
           <cell r="F2">
-            <v>29.046616073212469</v>
+            <v>108.09177880251808</v>
           </cell>
           <cell r="G2">
-            <v>23.785473697696574</v>
+            <v>88.513379843085573</v>
           </cell>
           <cell r="H2">
-            <v>25.701783834473886</v>
+            <v>95.64458476208415</v>
           </cell>
           <cell r="I2">
-            <v>14.354905024586408</v>
+            <v>53.419207756862185</v>
           </cell>
           <cell r="J2">
-            <v>6.492226463384954</v>
+            <v>24.159657877092204</v>
           </cell>
           <cell r="K2">
-            <v>4.6572143324103159</v>
+            <v>17.330988924354156</v>
           </cell>
           <cell r="L2">
-            <v>4.0532862893047392</v>
+            <v>15.083578889275813</v>
           </cell>
           <cell r="M2">
-            <v>5.9695964260820498</v>
+            <v>22.214783808274404</v>
           </cell>
           <cell r="N2">
-            <v>4.6339863307524087</v>
+            <v>17.244550076851144</v>
           </cell>
           <cell r="O2">
-            <v>4.982406355621011</v>
+            <v>18.541132789396343</v>
           </cell>
           <cell r="P2">
-            <v>5.1101603647394986</v>
+            <v>19.016546450662915</v>
           </cell>
           <cell r="Q2">
-            <v>5.2146863722000791</v>
+            <v>19.405521264426476</v>
           </cell>
           <cell r="R2">
-            <v>4.6339863307524087</v>
+            <v>17.244550076851144</v>
           </cell>
           <cell r="S2">
-            <v>4.6339863307524087</v>
+            <v>17.244550076851144</v>
           </cell>
           <cell r="T2">
-            <v>5.3888963846343803</v>
+            <v>20.053812620699073</v>
           </cell>
           <cell r="U2">
-            <v>6.259946446805885</v>
+            <v>23.295269402062068</v>
           </cell>
           <cell r="V2">
-            <v>4.6339863307524087</v>
+            <v>17.244550076851144</v>
           </cell>
           <cell r="W2">
-            <v>4.6339863307524087</v>
+            <v>17.244550076851144</v>
           </cell>
           <cell r="X2">
-            <v>6.9567864965430903</v>
+            <v>25.888434827152469</v>
           </cell>
           <cell r="Y2">
-            <v>11.091370791650503</v>
+            <v>41.274549682688829</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>28.349776023475265</v>
+            <v>105.49861337742767</v>
           </cell>
           <cell r="C3">
-            <v>21.358147524445315</v>
+            <v>79.480520279020681</v>
           </cell>
           <cell r="D3">
-            <v>19.197943370259981</v>
+            <v>71.441707461240455</v>
           </cell>
           <cell r="E3">
-            <v>20.243203444865784</v>
+            <v>75.331455598876047</v>
           </cell>
           <cell r="F3">
-            <v>19.267627375233701</v>
+            <v>71.701024003749495</v>
           </cell>
           <cell r="G3">
-            <v>28.605284041712238</v>
+            <v>106.44944069996082</v>
           </cell>
           <cell r="H3">
-            <v>29.453106102225835</v>
+            <v>109.6044586338208</v>
           </cell>
           <cell r="I3">
-            <v>14.05294100303362</v>
+            <v>52.295502739323013</v>
           </cell>
           <cell r="J3">
-            <v>9.8951287062683004</v>
+            <v>36.822949036283646</v>
           </cell>
           <cell r="K3">
-            <v>4.6339863307524087</v>
+            <v>17.244550076851144</v>
           </cell>
           <cell r="L3">
-            <v>7.9788185694909899</v>
+            <v>29.691744117285051</v>
           </cell>
           <cell r="M3">
-            <v>3.4725862478570684</v>
+            <v>12.922607701700482</v>
           </cell>
           <cell r="N3">
-            <v>5.8534564177925166</v>
+            <v>21.782589570759338</v>
           </cell>
           <cell r="O3">
-            <v>8.5246766084518004</v>
+            <v>31.723057033605862</v>
           </cell>
           <cell r="P3">
-            <v>12.101788863769448</v>
+            <v>45.034639549069901</v>
           </cell>
           <cell r="Q3">
-            <v>13.646450974020253</v>
+            <v>50.782822908020286</v>
           </cell>
           <cell r="R3">
-            <v>12.055332860453635</v>
+            <v>44.861761854063879</v>
           </cell>
           <cell r="S3">
-            <v>4.982406355621011</v>
+            <v>18.541132789396343</v>
           </cell>
           <cell r="T3">
-            <v>7.6071705429644805</v>
+            <v>28.308722557236838</v>
           </cell>
           <cell r="U3">
-            <v>6.9103304932272769</v>
+            <v>25.715557132146444</v>
           </cell>
           <cell r="V3">
-            <v>4.6339863307524087</v>
+            <v>17.244550076851144</v>
           </cell>
           <cell r="W3">
-            <v>2.3111861649617276</v>
+            <v>8.6006653265498176</v>
           </cell>
           <cell r="X3">
-            <v>8.0601165752936641</v>
+            <v>29.9942800835456</v>
           </cell>
           <cell r="Y3">
-            <v>25.202381798828888</v>
+            <v>93.786149540769372</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>27.083849933119343</v>
+            <v>100.78769618851345</v>
           </cell>
           <cell r="C4">
-            <v>23.808701699354483</v>
+            <v>88.599818690588577</v>
           </cell>
           <cell r="D4">
-            <v>17.560369253377548</v>
+            <v>65.347768712278011</v>
           </cell>
           <cell r="E4">
-            <v>18.384963312233243</v>
+            <v>68.416347798634987</v>
           </cell>
           <cell r="F4">
-            <v>18.547559323838591</v>
+            <v>69.021419731156087</v>
           </cell>
           <cell r="G4">
-            <v>19.314083378549512</v>
+            <v>71.873901698755517</v>
           </cell>
           <cell r="H4">
-            <v>16.131847151416281</v>
+            <v>60.031779590842703</v>
           </cell>
           <cell r="I4">
-            <v>6.5967524708455345</v>
+            <v>24.548632690855761</v>
           </cell>
           <cell r="J4">
-            <v>2.2995721641327744</v>
+            <v>8.5574459027983121</v>
           </cell>
           <cell r="K4">
-            <v>1.1497860820663872</v>
+            <v>4.278722951399156</v>
           </cell>
           <cell r="L4">
-            <v>2.3111861649617276</v>
+            <v>8.6006653265498176</v>
           </cell>
           <cell r="M4">
-            <v>3.0080262146989321</v>
+            <v>11.193830751640215</v>
           </cell>
           <cell r="N4">
-            <v>6.0276664302268177</v>
+            <v>22.430880927031939</v>
           </cell>
           <cell r="O4">
-            <v>5.4818083912660072</v>
+            <v>20.399568010711125</v>
           </cell>
           <cell r="P4">
-            <v>6.1438064385163518</v>
+            <v>22.863075164547006</v>
           </cell>
           <cell r="Q4">
-            <v>5.5979483995555421</v>
+            <v>20.831762248226195</v>
           </cell>
           <cell r="R4">
-            <v>5.5979483995555421</v>
+            <v>20.831762248226195</v>
           </cell>
           <cell r="S4">
-            <v>3.5306562520018354</v>
+            <v>13.138704820458013</v>
           </cell>
           <cell r="T4">
-            <v>6.3760864550954199</v>
+            <v>23.727463639577138</v>
           </cell>
           <cell r="U4">
-            <v>5.9115264219372836</v>
+            <v>21.998686689516873</v>
           </cell>
           <cell r="V4">
-            <v>3.4725862478570684</v>
+            <v>12.922607701700482</v>
           </cell>
           <cell r="W4">
-            <v>4.0532862893047392</v>
+            <v>15.083578889275813</v>
           </cell>
           <cell r="X4">
-            <v>9.3957266706233042</v>
+            <v>34.964513814968861</v>
           </cell>
           <cell r="Y4">
-            <v>17.25840523182476</v>
+            <v>64.224063694738845</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5">
-            <v>3.4725862478570684</v>
+            <v>12.922607701700482</v>
           </cell>
           <cell r="C5">
-            <v>3.4725862478570684</v>
+            <v>12.922607701700482</v>
           </cell>
           <cell r="D5">
-            <v>4.0532862893047392</v>
+            <v>15.083578889275813</v>
           </cell>
           <cell r="E5">
-            <v>4.0416722884757856</v>
+            <v>15.040359465524306</v>
           </cell>
           <cell r="F5">
-            <v>3.4725862478570684</v>
+            <v>12.922607701700482</v>
           </cell>
           <cell r="G5">
-            <v>7.4213465297012258</v>
+            <v>27.617211777212731</v>
           </cell>
           <cell r="H5">
-            <v>8.4317646018201717</v>
+            <v>31.37730164359381</v>
           </cell>
           <cell r="I5">
-            <v>5.3308263804896132</v>
+            <v>19.837715501941542</v>
           </cell>
           <cell r="J5">
-            <v>6.0276664302268177</v>
+            <v>22.430880927031939</v>
           </cell>
           <cell r="K5">
-            <v>1.3820660986454552</v>
+            <v>5.1431114264292885</v>
           </cell>
           <cell r="L5">
-            <v>3.112552222159513</v>
+            <v>11.582805565403776</v>
           </cell>
           <cell r="M5">
-            <v>3.4725862478570684</v>
+            <v>12.922607701700482</v>
           </cell>
           <cell r="N5">
-            <v>3.7048662644361365</v>
+            <v>13.786996176730613</v>
           </cell>
           <cell r="O5">
-            <v>4.2739523050548538</v>
+            <v>15.904747940554438</v>
           </cell>
           <cell r="P5">
-            <v>4.6456003315813623</v>
+            <v>17.28776950060265</v>
           </cell>
           <cell r="Q5">
-            <v>4.6572143324103159</v>
+            <v>17.330988924354156</v>
           </cell>
           <cell r="R5">
-            <v>4.6456003315813623</v>
+            <v>17.28776950060265</v>
           </cell>
           <cell r="S5">
-            <v>2.6479921890013762</v>
+            <v>9.854028615343509</v>
           </cell>
           <cell r="T5">
-            <v>1.1497860820663872</v>
+            <v>4.278722951399156</v>
           </cell>
           <cell r="U5">
-            <v>2.6596061898303298</v>
+            <v>9.8972480390950164</v>
           </cell>
           <cell r="V5">
-            <v>1.1497860820663872</v>
+            <v>4.278722951399156</v>
           </cell>
           <cell r="W5">
-            <v>2.3111861649617276</v>
+            <v>8.6006653265498176</v>
           </cell>
           <cell r="X5">
-            <v>4.6339863307524087</v>
+            <v>17.244550076851144</v>
           </cell>
           <cell r="Y5">
-            <v>8.1994845852411036</v>
+            <v>30.512913168563674</v>
           </cell>
         </row>
         <row r="6">
           <cell r="B6">
-            <v>19.74380140922079</v>
+            <v>73.473020377561255</v>
           </cell>
           <cell r="C6">
-            <v>25.260451802973659</v>
+            <v>94.002246659526904</v>
           </cell>
           <cell r="D6">
-            <v>23.564807681946458</v>
+            <v>87.692210791806943</v>
           </cell>
           <cell r="E6">
-            <v>24.772663768157614</v>
+            <v>92.187030861963621</v>
           </cell>
           <cell r="F6">
-            <v>24.44747174494692</v>
+            <v>90.976886996921451</v>
           </cell>
           <cell r="G6">
-            <v>21.602041541853335</v>
+            <v>80.388128177802329</v>
           </cell>
           <cell r="H6">
-            <v>25.399819812921098</v>
+            <v>94.520879744544999</v>
           </cell>
           <cell r="I6">
-            <v>9.1402186523863307</v>
+            <v>34.013686492435717</v>
           </cell>
           <cell r="J6">
-            <v>4.6339863307524087</v>
+            <v>17.244550076851144</v>
           </cell>
           <cell r="K6">
-            <v>2.3111861649617276</v>
+            <v>8.6006653265498176</v>
           </cell>
           <cell r="L6">
-            <v>1.6724161193692904</v>
+            <v>6.2235970202169542</v>
           </cell>
           <cell r="M6">
-            <v>2.3111861649617276</v>
+            <v>8.6006653265498176</v>
           </cell>
           <cell r="N6">
-            <v>2.3111861649617276</v>
+            <v>8.6006653265498176</v>
           </cell>
           <cell r="O6">
-            <v>2.3111861649617276</v>
+            <v>8.6006653265498176</v>
           </cell>
           <cell r="P6">
-            <v>2.4157121724223085</v>
+            <v>8.9896401403133783</v>
           </cell>
           <cell r="Q6">
-            <v>2.3111861649617276</v>
+            <v>8.6006653265498176</v>
           </cell>
           <cell r="R6">
-            <v>2.3111861649617276</v>
+            <v>8.6006653265498176</v>
           </cell>
           <cell r="S6">
-            <v>2.3111861649617276</v>
+            <v>8.6006653265498176</v>
           </cell>
           <cell r="T6">
-            <v>2.9267282088962583</v>
+            <v>10.891294785379669</v>
           </cell>
           <cell r="U6">
-            <v>2.4273261732512617</v>
+            <v>9.0328595640648839</v>
           </cell>
           <cell r="V6">
-            <v>1.6724161193692904</v>
+            <v>6.2235970202169542</v>
           </cell>
           <cell r="W6">
-            <v>2.0789061483826599</v>
+            <v>7.736276851519686</v>
           </cell>
           <cell r="X6">
-            <v>2.9151142080673047</v>
+            <v>10.848075361628162</v>
           </cell>
           <cell r="Y6">
-            <v>3.4842002486860215</v>
+            <v>12.965827125451987</v>
           </cell>
         </row>
       </sheetData>
@@ -14095,372 +14095,372 @@
       <sheetData sheetId="6">
         <row r="2">
           <cell r="B2">
-            <v>7.5723285404776197</v>
+            <v>28.179064285982317</v>
           </cell>
           <cell r="C2">
-            <v>12.264384875374796</v>
+            <v>45.639711481591</v>
           </cell>
           <cell r="D2">
-            <v>6.8754884907404161</v>
+            <v>25.585898860891923</v>
           </cell>
           <cell r="E2">
-            <v>7.142610509806345</v>
+            <v>26.579945607176576</v>
           </cell>
           <cell r="F2">
-            <v>7.885906562859363</v>
+            <v>29.345988727272999</v>
           </cell>
           <cell r="G2">
-            <v>7.7233105512540154</v>
+            <v>28.740916794751907</v>
           </cell>
           <cell r="H2">
-            <v>11.614000828953406</v>
+            <v>43.219423751506625</v>
           </cell>
           <cell r="I2">
-            <v>11.83466684470352</v>
+            <v>44.040592802785248</v>
           </cell>
           <cell r="J2">
-            <v>11.335264809058524</v>
+            <v>42.182157581470463</v>
           </cell>
           <cell r="K2">
-            <v>9.3492706673074917</v>
+            <v>34.791636119962838</v>
           </cell>
           <cell r="L2">
-            <v>10.057724717873649</v>
+            <v>37.428020968804738</v>
           </cell>
           <cell r="M2">
-            <v>11.614000828953406</v>
+            <v>43.219423751506625</v>
           </cell>
           <cell r="N2">
-            <v>9.0589206465836565</v>
+            <v>33.711150526175167</v>
           </cell>
           <cell r="O2">
-            <v>6.7593484824508829</v>
+            <v>25.153704623376857</v>
           </cell>
           <cell r="P2">
-            <v>7.6187845437934341</v>
+            <v>28.351941980988343</v>
           </cell>
           <cell r="Q2">
-            <v>9.3376566664785372</v>
+            <v>34.748416696211322</v>
           </cell>
           <cell r="R2">
-            <v>8.8614826324914482</v>
+            <v>32.976420322399555</v>
           </cell>
           <cell r="S2">
-            <v>9.7789886979787681</v>
+            <v>36.390754798768576</v>
           </cell>
           <cell r="T2">
-            <v>5.4121243862922874</v>
+            <v>20.140251468202088</v>
           </cell>
           <cell r="U2">
-            <v>5.0172483581078717</v>
+            <v>18.670791060650863</v>
           </cell>
           <cell r="V2">
-            <v>3.2635342329359069</v>
+            <v>12.144658074173362</v>
           </cell>
           <cell r="W2">
-            <v>3.2635342329359069</v>
+            <v>12.144658074173362</v>
           </cell>
           <cell r="X2">
-            <v>3.8674622760414841</v>
+            <v>14.392068109251706</v>
           </cell>
           <cell r="Y2">
-            <v>10.417758743571206</v>
+            <v>38.767823105101442</v>
           </cell>
         </row>
         <row r="3">
           <cell r="B3">
-            <v>13.088978934230488</v>
+            <v>48.708290567947962</v>
           </cell>
           <cell r="C3">
-            <v>14.215537014638969</v>
+            <v>52.900574671844112</v>
           </cell>
           <cell r="D3">
-            <v>9.7209186938339993</v>
+            <v>36.174657680011045</v>
           </cell>
           <cell r="E3">
-            <v>9.9183567079262076</v>
+            <v>36.909387883786657</v>
           </cell>
           <cell r="F3">
-            <v>10.26677673279481</v>
+            <v>38.205970596331859</v>
           </cell>
           <cell r="G3">
-            <v>10.371302740255391</v>
+            <v>38.594945410095413</v>
           </cell>
           <cell r="H3">
-            <v>20.823903486313455</v>
+            <v>77.492426786451375</v>
           </cell>
           <cell r="I3">
-            <v>18.117841293167313</v>
+            <v>67.422301052350335</v>
           </cell>
           <cell r="J3">
-            <v>11.474632819005965</v>
+            <v>42.700790666488551</v>
           </cell>
           <cell r="K3">
-            <v>11.184282798282132</v>
+            <v>41.62030507270088</v>
           </cell>
           <cell r="L3">
-            <v>8.9543946391230751</v>
+            <v>33.322175712411607</v>
           </cell>
           <cell r="M3">
-            <v>9.2563586606758648</v>
+            <v>34.44588072995078</v>
           </cell>
           <cell r="N3">
-            <v>10.545512752689692</v>
+            <v>39.243236766368014</v>
           </cell>
           <cell r="O3">
-            <v>8.2807825910437778</v>
+            <v>30.815449134824224</v>
           </cell>
           <cell r="P3">
-            <v>8.5943606134255202</v>
+            <v>31.982373576114902</v>
           </cell>
           <cell r="Q3">
-            <v>9.1053766498994708</v>
+            <v>33.884028221181197</v>
           </cell>
           <cell r="R3">
-            <v>8.8266406300045883</v>
+            <v>32.846762051145035</v>
           </cell>
           <cell r="S3">
-            <v>6.6199804725034417</v>
+            <v>24.635071538358776</v>
           </cell>
           <cell r="T3">
-            <v>5.6327904020424011</v>
+            <v>20.961420519480711</v>
           </cell>
           <cell r="U3">
-            <v>4.9127223506472912</v>
+            <v>18.281816246887303</v>
           </cell>
           <cell r="V3">
-            <v>2.7641321972909103</v>
+            <v>10.286222852858577</v>
           </cell>
           <cell r="W3">
-            <v>3.2519202321069534</v>
+            <v>12.101438650421855</v>
           </cell>
           <cell r="X3">
-            <v>2.4273261732512617</v>
+            <v>9.0328595640648839</v>
           </cell>
           <cell r="Y3">
-            <v>14.32006302209955</v>
+            <v>53.289549485607665</v>
           </cell>
         </row>
         <row r="4">
           <cell r="B4">
-            <v>6.8290324874246027</v>
+            <v>25.413021165885894</v>
           </cell>
           <cell r="C4">
-            <v>10.429372744400158</v>
+            <v>38.811042528852951</v>
           </cell>
           <cell r="D4">
-            <v>8.8730966333204009</v>
+            <v>33.019639746151057</v>
           </cell>
           <cell r="E4">
-            <v>8.9660086399520296</v>
+            <v>33.365395136163116</v>
           </cell>
           <cell r="F4">
-            <v>8.8730966333204009</v>
+            <v>33.019639746151057</v>
           </cell>
           <cell r="G4">
-            <v>8.9660086399520296</v>
+            <v>33.365395136163116</v>
           </cell>
           <cell r="H4">
-            <v>9.5583226822286527</v>
+            <v>35.569585747489953</v>
           </cell>
           <cell r="I4">
-            <v>8.3504665960174993</v>
+            <v>31.074765677333264</v>
           </cell>
           <cell r="J4">
-            <v>7.8046085570566888</v>
+            <v>29.04345276101245</v>
           </cell>
           <cell r="K4">
-            <v>7.6187845437934341</v>
+            <v>28.351941980988343</v>
           </cell>
           <cell r="L4">
-            <v>6.6780504766482087</v>
+            <v>24.851168657116311</v>
           </cell>
           <cell r="M4">
-            <v>5.7373164095029825</v>
+            <v>21.350395333244276</v>
           </cell>
           <cell r="N4">
-            <v>5.3540543821475204</v>
+            <v>19.924154349444557</v>
           </cell>
           <cell r="O4">
-            <v>5.3540543821475204</v>
+            <v>19.924154349444557</v>
           </cell>
           <cell r="P4">
-            <v>7.0961545064905316</v>
+            <v>26.40706791217055</v>
           </cell>
           <cell r="Q4">
-            <v>5.3540543821475204</v>
+            <v>19.924154349444557</v>
           </cell>
           <cell r="R4">
-            <v>5.3540543821475204</v>
+            <v>19.924154349444557</v>
           </cell>
           <cell r="S4">
-            <v>5.4121243862922874</v>
+            <v>20.140251468202088</v>
           </cell>
           <cell r="T4">
-            <v>6.4806124625560004</v>
+            <v>24.116438453340695</v>
           </cell>
           <cell r="U4">
-            <v>6.4573844608980933</v>
+            <v>24.029999605837681</v>
           </cell>
           <cell r="V4">
-            <v>5.9115264219372836</v>
+            <v>21.998686689516873</v>
           </cell>
           <cell r="W4">
-            <v>5.0288623589368244</v>
+            <v>18.714010484402369</v>
           </cell>
           <cell r="X4">
-            <v>5.365668382976474</v>
+            <v>19.967373773196062</v>
           </cell>
           <cell r="Y4">
-            <v>8.0717305761226168</v>
+            <v>30.037499507297106</v>
           </cell>
         </row>
         <row r="5">
           <cell r="B5">
-            <v>12.879926919309327</v>
+            <v>47.930340940420848</v>
           </cell>
           <cell r="C5">
-            <v>22.054987574182515</v>
+            <v>82.073685704111071</v>
           </cell>
           <cell r="D5">
-            <v>12.334068880348516</v>
+            <v>45.899028024100033</v>
           </cell>
           <cell r="E5">
-            <v>12.334068880348516</v>
+            <v>45.899028024100033</v>
           </cell>
           <cell r="F5">
-            <v>12.334068880348516</v>
+            <v>45.899028024100033</v>
           </cell>
           <cell r="G5">
-            <v>12.334068880348516</v>
+            <v>45.899028024100033</v>
           </cell>
           <cell r="H5">
-            <v>12.101788863769448</v>
+            <v>45.034639549069901</v>
           </cell>
           <cell r="I5">
-            <v>7.8046085570566888</v>
+            <v>29.04345276101245</v>
           </cell>
           <cell r="J5">
-            <v>8.0833445769515713</v>
+            <v>30.080718931048612</v>
           </cell>
           <cell r="K5">
-            <v>8.6640446183992399</v>
+            <v>32.241690118623943</v>
           </cell>
           <cell r="L5">
-            <v>12.171472868743169</v>
+            <v>45.293956091578941</v>
           </cell>
           <cell r="M5">
-            <v>10.917160779216202</v>
+            <v>40.626258326416227</v>
           </cell>
           <cell r="N5">
-            <v>9.8254447012945825</v>
+            <v>36.563632493774605</v>
           </cell>
           <cell r="O5">
-            <v>10.022882715386791</v>
+            <v>37.298362697550218</v>
           </cell>
           <cell r="P5">
-            <v>9.8254447012945825</v>
+            <v>36.563632493774605</v>
           </cell>
           <cell r="Q5">
-            <v>12.64764690273026</v>
+            <v>47.065952465390716</v>
           </cell>
           <cell r="R5">
-            <v>11.463018818177011</v>
+            <v>42.657571242737035</v>
           </cell>
           <cell r="S5">
-            <v>9.3608846681364462</v>
+            <v>34.83485554371434</v>
           </cell>
           <cell r="T5">
-            <v>9.3608846681364462</v>
+            <v>34.83485554371434</v>
           </cell>
           <cell r="U5">
-            <v>10.16225072533423</v>
+            <v>37.816995782568299</v>
           </cell>
           <cell r="V5">
-            <v>7.1658385114642513</v>
+            <v>26.666384454679587</v>
           </cell>
           <cell r="W5">
-            <v>7.6652405471092475</v>
+            <v>28.524819675994372</v>
           </cell>
           <cell r="X5">
-            <v>6.643208474161348</v>
+            <v>24.721510385861787</v>
           </cell>
           <cell r="Y5">
-            <v>11.915964850506194</v>
+            <v>44.343128769045798</v>
           </cell>
         </row>
         <row r="6">
           <cell r="B6">
-            <v>8.8034126283466811</v>
+            <v>32.760323203642024</v>
           </cell>
           <cell r="C6">
-            <v>10.975230783360967</v>
+            <v>40.842355445173759</v>
           </cell>
           <cell r="D6">
-            <v>7.351662524727506</v>
+            <v>27.357895234703694</v>
           </cell>
           <cell r="E6">
-            <v>7.8975205636883157</v>
+            <v>29.389208151024505</v>
           </cell>
           <cell r="F6">
-            <v>7.8975205636883157</v>
+            <v>29.389208151024505</v>
           </cell>
           <cell r="G6">
-            <v>7.2587505180958782</v>
+            <v>27.012139844691639</v>
           </cell>
           <cell r="H6">
-            <v>9.0240786440967966</v>
+            <v>33.581492254920647</v>
           </cell>
           <cell r="I6">
-            <v>10.975230783360967</v>
+            <v>40.842355445173759</v>
           </cell>
           <cell r="J6">
-            <v>10.708108764295041</v>
+            <v>39.848308698889113</v>
           </cell>
           <cell r="K6">
-            <v>10.011268714557835</v>
+            <v>37.255143273798708</v>
           </cell>
           <cell r="L6">
-            <v>8.2343265877279652</v>
+            <v>30.642571439818198</v>
           </cell>
           <cell r="M6">
-            <v>7.4678025330170392</v>
+            <v>27.79008947221876</v>
           </cell>
           <cell r="N6">
-            <v>6.7941904849377419</v>
+            <v>25.283362894631374</v>
           </cell>
           <cell r="O6">
-            <v>7.4794165338459937</v>
+            <v>27.833308895970269</v>
           </cell>
           <cell r="P6">
-            <v>7.885906562859363</v>
+            <v>29.345988727272999</v>
           </cell>
           <cell r="Q6">
-            <v>9.4537966747680731</v>
+            <v>35.180610933726392</v>
           </cell>
           <cell r="R6">
-            <v>9.8835147054393477</v>
+            <v>36.779729612532137</v>
           </cell>
           <cell r="S6">
-            <v>10.650038760150274</v>
+            <v>39.632211580131575</v>
           </cell>
           <cell r="T6">
-            <v>10.208706728650043</v>
+            <v>37.989873477574321</v>
           </cell>
           <cell r="U6">
-            <v>8.8266406300045883</v>
+            <v>32.846762051145035</v>
           </cell>
           <cell r="V6">
-            <v>7.3052065214116926</v>
+            <v>27.185017539697668</v>
           </cell>
           <cell r="W6">
-            <v>7.6884685487671547</v>
+            <v>28.611258523497387</v>
           </cell>
           <cell r="X6">
-            <v>7.5839425413065742</v>
+            <v>28.222283709733826</v>
           </cell>
           <cell r="Y6">
-            <v>9.2795866623337719</v>
+            <v>34.532319577453791</v>
           </cell>
         </row>
       </sheetData>
@@ -14736,8 +14736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26145,99 +26145,99 @@
       </c>
       <c r="B2" s="3">
         <f>AVERAGE('[2]Csr, Winter'!B$2:B$6)</f>
-        <v>19.983049826297229</v>
+        <v>74.363340506842292</v>
       </c>
       <c r="C2" s="3">
         <f>AVERAGE('[2]Csr, Winter'!C$2:C$6)</f>
-        <v>19.144518966446796</v>
+        <v>71.242898111983521</v>
       </c>
       <c r="D2" s="3">
         <f>AVERAGE('[2]Csr, Winter'!D$2:D$6)</f>
-        <v>18.073708090017288</v>
+        <v>67.258067242094612</v>
       </c>
       <c r="E2" s="3">
         <f>AVERAGE('[2]Csr, Winter'!E$2:E$6)</f>
-        <v>19.144518966446793</v>
+        <v>71.242898111983521</v>
       </c>
       <c r="F2" s="3">
         <f>AVERAGE('[2]Csr, Winter'!F$2:F$6)</f>
-        <v>18.95637215301775</v>
+        <v>70.542743447209119</v>
       </c>
       <c r="G2" s="3">
         <f>AVERAGE('[2]Csr, Winter'!G$2:G$6)</f>
-        <v>20.145645837902578</v>
+        <v>74.968412439363391</v>
       </c>
       <c r="H2" s="3">
         <f>AVERAGE('[2]Csr, Winter'!H$2:H$6)</f>
-        <v>21.023664300571454</v>
+        <v>78.235800874977286</v>
       </c>
       <c r="I2" s="3">
         <f>AVERAGE('[2]Csr, Winter'!I$2:I$6)</f>
-        <v>9.8951287062683004</v>
+        <v>36.822949036283646</v>
       </c>
       <c r="J2" s="3">
         <f>AVERAGE('[2]Csr, Winter'!J$2:J$6)</f>
-        <v>5.8697160189530511</v>
+        <v>21.843096764011445</v>
       </c>
       <c r="K2" s="3">
         <f>AVERAGE('[2]Csr, Winter'!K$2:K$6)</f>
-        <v>2.8268478017672587</v>
+        <v>10.519607741116712</v>
       </c>
       <c r="L2" s="3">
         <f>AVERAGE('[2]Csr, Winter'!L$2:L$6)</f>
-        <v>3.8256518730572524</v>
+        <v>14.236478183746282</v>
       </c>
       <c r="M2" s="3">
         <f>AVERAGE('[2]Csr, Winter'!M$2:M$6)</f>
-        <v>3.6467962602913695</v>
+        <v>13.570899057973079</v>
       </c>
       <c r="N2" s="3">
         <f>AVERAGE('[2]Csr, Winter'!N$2:N$6)</f>
-        <v>4.506232321633922</v>
+        <v>16.769136415584569</v>
       </c>
       <c r="O2" s="3">
         <f>AVERAGE('[2]Csr, Winter'!O$2:O$6)</f>
-        <v>5.1148059650710795</v>
+        <v>19.03383422016352</v>
       </c>
       <c r="P2" s="3">
         <f>AVERAGE('[2]Csr, Winter'!P$2:P$6)</f>
-        <v>6.0834136342057947</v>
+        <v>22.638334161039172</v>
       </c>
       <c r="Q2" s="3">
         <f>AVERAGE('[2]Csr, Winter'!Q$2:Q$6)</f>
-        <v>6.2854972486295839</v>
+        <v>23.390352134315386</v>
       </c>
       <c r="R2" s="3">
         <f>AVERAGE('[2]Csr, Winter'!R$2:R$6)</f>
-        <v>5.8488108174609357</v>
+        <v>21.765301801258737</v>
       </c>
       <c r="S2" s="3">
         <f>AVERAGE('[2]Csr, Winter'!S$2:S$6)</f>
-        <v>3.6212454584676719</v>
+        <v>13.475816325719766</v>
       </c>
       <c r="T2" s="3">
         <f>AVERAGE('[2]Csr, Winter'!T$2:T$6)</f>
-        <v>4.6897335347313849</v>
+        <v>17.452003310858377</v>
       </c>
       <c r="U2" s="3">
         <f>AVERAGE('[2]Csr, Winter'!U$2:U$6)</f>
-        <v>4.8337471450104079</v>
+        <v>17.987924165377056</v>
       </c>
       <c r="V2" s="3">
         <f>AVERAGE('[2]Csr, Winter'!V$2:V$6)</f>
-        <v>3.1125522221595121</v>
+        <v>11.582805565403776</v>
       </c>
       <c r="W2" s="3">
         <f>AVERAGE('[2]Csr, Winter'!W$2:W$6)</f>
-        <v>3.0777102196726522</v>
+        <v>11.453147294149256</v>
       </c>
       <c r="X2" s="3">
         <f>AVERAGE('[2]Csr, Winter'!X$2:X$6)</f>
-        <v>6.3923460562559544</v>
+        <v>23.787970832829245</v>
       </c>
       <c r="Y2" s="3">
         <f>AVERAGE('[2]Csr, Winter'!Y$2:Y$6)</f>
-        <v>13.047168531246253</v>
+        <v>48.552700642442538</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -26246,99 +26246,99 @@
       </c>
       <c r="B3" s="3">
         <f>AVERAGE('[2]Csr, Winter'!B$2:B$6)</f>
-        <v>19.983049826297229</v>
+        <v>74.363340506842292</v>
       </c>
       <c r="C3" s="3">
         <f>AVERAGE('[2]Csr, Winter'!C$2:C$6)</f>
-        <v>19.144518966446796</v>
+        <v>71.242898111983521</v>
       </c>
       <c r="D3" s="3">
         <f>AVERAGE('[2]Csr, Winter'!D$2:D$6)</f>
-        <v>18.073708090017288</v>
+        <v>67.258067242094612</v>
       </c>
       <c r="E3" s="3">
         <f>AVERAGE('[2]Csr, Winter'!E$2:E$6)</f>
-        <v>19.144518966446793</v>
+        <v>71.242898111983521</v>
       </c>
       <c r="F3" s="3">
         <f>AVERAGE('[2]Csr, Winter'!F$2:F$6)</f>
-        <v>18.95637215301775</v>
+        <v>70.542743447209119</v>
       </c>
       <c r="G3" s="3">
         <f>AVERAGE('[2]Csr, Winter'!G$2:G$6)</f>
-        <v>20.145645837902578</v>
+        <v>74.968412439363391</v>
       </c>
       <c r="H3" s="3">
         <f>AVERAGE('[2]Csr, Winter'!H$2:H$6)</f>
-        <v>21.023664300571454</v>
+        <v>78.235800874977286</v>
       </c>
       <c r="I3" s="3">
         <f>AVERAGE('[2]Csr, Winter'!I$2:I$6)</f>
-        <v>9.8951287062683004</v>
+        <v>36.822949036283646</v>
       </c>
       <c r="J3" s="3">
         <f>AVERAGE('[2]Csr, Winter'!J$2:J$6)</f>
-        <v>5.8697160189530511</v>
+        <v>21.843096764011445</v>
       </c>
       <c r="K3" s="3">
         <f>AVERAGE('[2]Csr, Winter'!K$2:K$6)</f>
-        <v>2.8268478017672587</v>
+        <v>10.519607741116712</v>
       </c>
       <c r="L3" s="3">
         <f>AVERAGE('[2]Csr, Winter'!L$2:L$6)</f>
-        <v>3.8256518730572524</v>
+        <v>14.236478183746282</v>
       </c>
       <c r="M3" s="3">
         <f>AVERAGE('[2]Csr, Winter'!M$2:M$6)</f>
-        <v>3.6467962602913695</v>
+        <v>13.570899057973079</v>
       </c>
       <c r="N3" s="3">
         <f>AVERAGE('[2]Csr, Winter'!N$2:N$6)</f>
-        <v>4.506232321633922</v>
+        <v>16.769136415584569</v>
       </c>
       <c r="O3" s="3">
         <f>AVERAGE('[2]Csr, Winter'!O$2:O$6)</f>
-        <v>5.1148059650710795</v>
+        <v>19.03383422016352</v>
       </c>
       <c r="P3" s="3">
         <f>AVERAGE('[2]Csr, Winter'!P$2:P$6)</f>
-        <v>6.0834136342057947</v>
+        <v>22.638334161039172</v>
       </c>
       <c r="Q3" s="3">
         <f>AVERAGE('[2]Csr, Winter'!Q$2:Q$6)</f>
-        <v>6.2854972486295839</v>
+        <v>23.390352134315386</v>
       </c>
       <c r="R3" s="3">
         <f>AVERAGE('[2]Csr, Winter'!R$2:R$6)</f>
-        <v>5.8488108174609357</v>
+        <v>21.765301801258737</v>
       </c>
       <c r="S3" s="3">
         <f>AVERAGE('[2]Csr, Winter'!S$2:S$6)</f>
-        <v>3.6212454584676719</v>
+        <v>13.475816325719766</v>
       </c>
       <c r="T3" s="3">
         <f>AVERAGE('[2]Csr, Winter'!T$2:T$6)</f>
-        <v>4.6897335347313849</v>
+        <v>17.452003310858377</v>
       </c>
       <c r="U3" s="3">
         <f>AVERAGE('[2]Csr, Winter'!U$2:U$6)</f>
-        <v>4.8337471450104079</v>
+        <v>17.987924165377056</v>
       </c>
       <c r="V3" s="3">
         <f>AVERAGE('[2]Csr, Winter'!V$2:V$6)</f>
-        <v>3.1125522221595121</v>
+        <v>11.582805565403776</v>
       </c>
       <c r="W3" s="3">
         <f>AVERAGE('[2]Csr, Winter'!W$2:W$6)</f>
-        <v>3.0777102196726522</v>
+        <v>11.453147294149256</v>
       </c>
       <c r="X3" s="3">
         <f>AVERAGE('[2]Csr, Winter'!X$2:X$6)</f>
-        <v>6.3923460562559544</v>
+        <v>23.787970832829245</v>
       </c>
       <c r="Y3" s="3">
         <f>AVERAGE('[2]Csr, Winter'!Y$2:Y$6)</f>
-        <v>13.047168531246253</v>
+        <v>48.552700642442538</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -26347,99 +26347,99 @@
       </c>
       <c r="B4" s="3">
         <f>AVERAGE('[2]Csr, Winter'!B$2:B$6)</f>
-        <v>19.983049826297229</v>
+        <v>74.363340506842292</v>
       </c>
       <c r="C4" s="3">
         <f>AVERAGE('[2]Csr, Winter'!C$2:C$6)</f>
-        <v>19.144518966446796</v>
+        <v>71.242898111983521</v>
       </c>
       <c r="D4" s="3">
         <f>AVERAGE('[2]Csr, Winter'!D$2:D$6)</f>
-        <v>18.073708090017288</v>
+        <v>67.258067242094612</v>
       </c>
       <c r="E4" s="3">
         <f>AVERAGE('[2]Csr, Winter'!E$2:E$6)</f>
-        <v>19.144518966446793</v>
+        <v>71.242898111983521</v>
       </c>
       <c r="F4" s="3">
         <f>AVERAGE('[2]Csr, Winter'!F$2:F$6)</f>
-        <v>18.95637215301775</v>
+        <v>70.542743447209119</v>
       </c>
       <c r="G4" s="3">
         <f>AVERAGE('[2]Csr, Winter'!G$2:G$6)</f>
-        <v>20.145645837902578</v>
+        <v>74.968412439363391</v>
       </c>
       <c r="H4" s="3">
         <f>AVERAGE('[2]Csr, Winter'!H$2:H$6)</f>
-        <v>21.023664300571454</v>
+        <v>78.235800874977286</v>
       </c>
       <c r="I4" s="3">
         <f>AVERAGE('[2]Csr, Winter'!I$2:I$6)</f>
-        <v>9.8951287062683004</v>
+        <v>36.822949036283646</v>
       </c>
       <c r="J4" s="3">
         <f>AVERAGE('[2]Csr, Winter'!J$2:J$6)</f>
-        <v>5.8697160189530511</v>
+        <v>21.843096764011445</v>
       </c>
       <c r="K4" s="3">
         <f>AVERAGE('[2]Csr, Winter'!K$2:K$6)</f>
-        <v>2.8268478017672587</v>
+        <v>10.519607741116712</v>
       </c>
       <c r="L4" s="3">
         <f>AVERAGE('[2]Csr, Winter'!L$2:L$6)</f>
-        <v>3.8256518730572524</v>
+        <v>14.236478183746282</v>
       </c>
       <c r="M4" s="3">
         <f>AVERAGE('[2]Csr, Winter'!M$2:M$6)</f>
-        <v>3.6467962602913695</v>
+        <v>13.570899057973079</v>
       </c>
       <c r="N4" s="3">
         <f>AVERAGE('[2]Csr, Winter'!N$2:N$6)</f>
-        <v>4.506232321633922</v>
+        <v>16.769136415584569</v>
       </c>
       <c r="O4" s="3">
         <f>AVERAGE('[2]Csr, Winter'!O$2:O$6)</f>
-        <v>5.1148059650710795</v>
+        <v>19.03383422016352</v>
       </c>
       <c r="P4" s="3">
         <f>AVERAGE('[2]Csr, Winter'!P$2:P$6)</f>
-        <v>6.0834136342057947</v>
+        <v>22.638334161039172</v>
       </c>
       <c r="Q4" s="3">
         <f>AVERAGE('[2]Csr, Winter'!Q$2:Q$6)</f>
-        <v>6.2854972486295839</v>
+        <v>23.390352134315386</v>
       </c>
       <c r="R4" s="3">
         <f>AVERAGE('[2]Csr, Winter'!R$2:R$6)</f>
-        <v>5.8488108174609357</v>
+        <v>21.765301801258737</v>
       </c>
       <c r="S4" s="3">
         <f>AVERAGE('[2]Csr, Winter'!S$2:S$6)</f>
-        <v>3.6212454584676719</v>
+        <v>13.475816325719766</v>
       </c>
       <c r="T4" s="3">
         <f>AVERAGE('[2]Csr, Winter'!T$2:T$6)</f>
-        <v>4.6897335347313849</v>
+        <v>17.452003310858377</v>
       </c>
       <c r="U4" s="3">
         <f>AVERAGE('[2]Csr, Winter'!U$2:U$6)</f>
-        <v>4.8337471450104079</v>
+        <v>17.987924165377056</v>
       </c>
       <c r="V4" s="3">
         <f>AVERAGE('[2]Csr, Winter'!V$2:V$6)</f>
-        <v>3.1125522221595121</v>
+        <v>11.582805565403776</v>
       </c>
       <c r="W4" s="3">
         <f>AVERAGE('[2]Csr, Winter'!W$2:W$6)</f>
-        <v>3.0777102196726522</v>
+        <v>11.453147294149256</v>
       </c>
       <c r="X4" s="3">
         <f>AVERAGE('[2]Csr, Winter'!X$2:X$6)</f>
-        <v>6.3923460562559544</v>
+        <v>23.787970832829245</v>
       </c>
       <c r="Y4" s="3">
         <f>AVERAGE('[2]Csr, Winter'!Y$2:Y$6)</f>
-        <v>13.047168531246253</v>
+        <v>48.552700642442538</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -26448,99 +26448,99 @@
       </c>
       <c r="B5" s="3">
         <f>AVERAGE('[2]Csr, Winter'!B$2:B$6)</f>
-        <v>19.983049826297229</v>
+        <v>74.363340506842292</v>
       </c>
       <c r="C5" s="3">
         <f>AVERAGE('[2]Csr, Winter'!C$2:C$6)</f>
-        <v>19.144518966446796</v>
+        <v>71.242898111983521</v>
       </c>
       <c r="D5" s="3">
         <f>AVERAGE('[2]Csr, Winter'!D$2:D$6)</f>
-        <v>18.073708090017288</v>
+        <v>67.258067242094612</v>
       </c>
       <c r="E5" s="3">
         <f>AVERAGE('[2]Csr, Winter'!E$2:E$6)</f>
-        <v>19.144518966446793</v>
+        <v>71.242898111983521</v>
       </c>
       <c r="F5" s="3">
         <f>AVERAGE('[2]Csr, Winter'!F$2:F$6)</f>
-        <v>18.95637215301775</v>
+        <v>70.542743447209119</v>
       </c>
       <c r="G5" s="3">
         <f>AVERAGE('[2]Csr, Winter'!G$2:G$6)</f>
-        <v>20.145645837902578</v>
+        <v>74.968412439363391</v>
       </c>
       <c r="H5" s="3">
         <f>AVERAGE('[2]Csr, Winter'!H$2:H$6)</f>
-        <v>21.023664300571454</v>
+        <v>78.235800874977286</v>
       </c>
       <c r="I5" s="3">
         <f>AVERAGE('[2]Csr, Winter'!I$2:I$6)</f>
-        <v>9.8951287062683004</v>
+        <v>36.822949036283646</v>
       </c>
       <c r="J5" s="3">
         <f>AVERAGE('[2]Csr, Winter'!J$2:J$6)</f>
-        <v>5.8697160189530511</v>
+        <v>21.843096764011445</v>
       </c>
       <c r="K5" s="3">
         <f>AVERAGE('[2]Csr, Winter'!K$2:K$6)</f>
-        <v>2.8268478017672587</v>
+        <v>10.519607741116712</v>
       </c>
       <c r="L5" s="3">
         <f>AVERAGE('[2]Csr, Winter'!L$2:L$6)</f>
-        <v>3.8256518730572524</v>
+        <v>14.236478183746282</v>
       </c>
       <c r="M5" s="3">
         <f>AVERAGE('[2]Csr, Winter'!M$2:M$6)</f>
-        <v>3.6467962602913695</v>
+        <v>13.570899057973079</v>
       </c>
       <c r="N5" s="3">
         <f>AVERAGE('[2]Csr, Winter'!N$2:N$6)</f>
-        <v>4.506232321633922</v>
+        <v>16.769136415584569</v>
       </c>
       <c r="O5" s="3">
         <f>AVERAGE('[2]Csr, Winter'!O$2:O$6)</f>
-        <v>5.1148059650710795</v>
+        <v>19.03383422016352</v>
       </c>
       <c r="P5" s="3">
         <f>AVERAGE('[2]Csr, Winter'!P$2:P$6)</f>
-        <v>6.0834136342057947</v>
+        <v>22.638334161039172</v>
       </c>
       <c r="Q5" s="3">
         <f>AVERAGE('[2]Csr, Winter'!Q$2:Q$6)</f>
-        <v>6.2854972486295839</v>
+        <v>23.390352134315386</v>
       </c>
       <c r="R5" s="3">
         <f>AVERAGE('[2]Csr, Winter'!R$2:R$6)</f>
-        <v>5.8488108174609357</v>
+        <v>21.765301801258737</v>
       </c>
       <c r="S5" s="3">
         <f>AVERAGE('[2]Csr, Winter'!S$2:S$6)</f>
-        <v>3.6212454584676719</v>
+        <v>13.475816325719766</v>
       </c>
       <c r="T5" s="3">
         <f>AVERAGE('[2]Csr, Winter'!T$2:T$6)</f>
-        <v>4.6897335347313849</v>
+        <v>17.452003310858377</v>
       </c>
       <c r="U5" s="3">
         <f>AVERAGE('[2]Csr, Winter'!U$2:U$6)</f>
-        <v>4.8337471450104079</v>
+        <v>17.987924165377056</v>
       </c>
       <c r="V5" s="3">
         <f>AVERAGE('[2]Csr, Winter'!V$2:V$6)</f>
-        <v>3.1125522221595121</v>
+        <v>11.582805565403776</v>
       </c>
       <c r="W5" s="3">
         <f>AVERAGE('[2]Csr, Winter'!W$2:W$6)</f>
-        <v>3.0777102196726522</v>
+        <v>11.453147294149256</v>
       </c>
       <c r="X5" s="3">
         <f>AVERAGE('[2]Csr, Winter'!X$2:X$6)</f>
-        <v>6.3923460562559544</v>
+        <v>23.787970832829245</v>
       </c>
       <c r="Y5" s="3">
         <f>AVERAGE('[2]Csr, Winter'!Y$2:Y$6)</f>
-        <v>13.047168531246253</v>
+        <v>48.552700642442538</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -26549,99 +26549,99 @@
       </c>
       <c r="B6" s="3">
         <f>AVERAGE('[2]Csr, Winter'!B$2:B$6)</f>
-        <v>19.983049826297229</v>
+        <v>74.363340506842292</v>
       </c>
       <c r="C6" s="3">
         <f>AVERAGE('[2]Csr, Winter'!C$2:C$6)</f>
-        <v>19.144518966446796</v>
+        <v>71.242898111983521</v>
       </c>
       <c r="D6" s="3">
         <f>AVERAGE('[2]Csr, Winter'!D$2:D$6)</f>
-        <v>18.073708090017288</v>
+        <v>67.258067242094612</v>
       </c>
       <c r="E6" s="3">
         <f>AVERAGE('[2]Csr, Winter'!E$2:E$6)</f>
-        <v>19.144518966446793</v>
+        <v>71.242898111983521</v>
       </c>
       <c r="F6" s="3">
         <f>AVERAGE('[2]Csr, Winter'!F$2:F$6)</f>
-        <v>18.95637215301775</v>
+        <v>70.542743447209119</v>
       </c>
       <c r="G6" s="3">
         <f>AVERAGE('[2]Csr, Winter'!G$2:G$6)</f>
-        <v>20.145645837902578</v>
+        <v>74.968412439363391</v>
       </c>
       <c r="H6" s="3">
         <f>AVERAGE('[2]Csr, Winter'!H$2:H$6)</f>
-        <v>21.023664300571454</v>
+        <v>78.235800874977286</v>
       </c>
       <c r="I6" s="3">
         <f>AVERAGE('[2]Csr, Winter'!I$2:I$6)</f>
-        <v>9.8951287062683004</v>
+        <v>36.822949036283646</v>
       </c>
       <c r="J6" s="3">
         <f>AVERAGE('[2]Csr, Winter'!J$2:J$6)</f>
-        <v>5.8697160189530511</v>
+        <v>21.843096764011445</v>
       </c>
       <c r="K6" s="3">
         <f>AVERAGE('[2]Csr, Winter'!K$2:K$6)</f>
-        <v>2.8268478017672587</v>
+        <v>10.519607741116712</v>
       </c>
       <c r="L6" s="3">
         <f>AVERAGE('[2]Csr, Winter'!L$2:L$6)</f>
-        <v>3.8256518730572524</v>
+        <v>14.236478183746282</v>
       </c>
       <c r="M6" s="3">
         <f>AVERAGE('[2]Csr, Winter'!M$2:M$6)</f>
-        <v>3.6467962602913695</v>
+        <v>13.570899057973079</v>
       </c>
       <c r="N6" s="3">
         <f>AVERAGE('[2]Csr, Winter'!N$2:N$6)</f>
-        <v>4.506232321633922</v>
+        <v>16.769136415584569</v>
       </c>
       <c r="O6" s="3">
         <f>AVERAGE('[2]Csr, Winter'!O$2:O$6)</f>
-        <v>5.1148059650710795</v>
+        <v>19.03383422016352</v>
       </c>
       <c r="P6" s="3">
         <f>AVERAGE('[2]Csr, Winter'!P$2:P$6)</f>
-        <v>6.0834136342057947</v>
+        <v>22.638334161039172</v>
       </c>
       <c r="Q6" s="3">
         <f>AVERAGE('[2]Csr, Winter'!Q$2:Q$6)</f>
-        <v>6.2854972486295839</v>
+        <v>23.390352134315386</v>
       </c>
       <c r="R6" s="3">
         <f>AVERAGE('[2]Csr, Winter'!R$2:R$6)</f>
-        <v>5.8488108174609357</v>
+        <v>21.765301801258737</v>
       </c>
       <c r="S6" s="3">
         <f>AVERAGE('[2]Csr, Winter'!S$2:S$6)</f>
-        <v>3.6212454584676719</v>
+        <v>13.475816325719766</v>
       </c>
       <c r="T6" s="3">
         <f>AVERAGE('[2]Csr, Winter'!T$2:T$6)</f>
-        <v>4.6897335347313849</v>
+        <v>17.452003310858377</v>
       </c>
       <c r="U6" s="3">
         <f>AVERAGE('[2]Csr, Winter'!U$2:U$6)</f>
-        <v>4.8337471450104079</v>
+        <v>17.987924165377056</v>
       </c>
       <c r="V6" s="3">
         <f>AVERAGE('[2]Csr, Winter'!V$2:V$6)</f>
-        <v>3.1125522221595121</v>
+        <v>11.582805565403776</v>
       </c>
       <c r="W6" s="3">
         <f>AVERAGE('[2]Csr, Winter'!W$2:W$6)</f>
-        <v>3.0777102196726522</v>
+        <v>11.453147294149256</v>
       </c>
       <c r="X6" s="3">
         <f>AVERAGE('[2]Csr, Winter'!X$2:X$6)</f>
-        <v>6.3923460562559544</v>
+        <v>23.787970832829245</v>
       </c>
       <c r="Y6" s="3">
         <f>AVERAGE('[2]Csr, Winter'!Y$2:Y$6)</f>
-        <v>13.047168531246253</v>
+        <v>48.552700642442538</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -26650,99 +26650,99 @@
       </c>
       <c r="B7" s="3">
         <f>AVERAGE('[2]Csr, Winter'!B$2:B$6)</f>
-        <v>19.983049826297229</v>
+        <v>74.363340506842292</v>
       </c>
       <c r="C7" s="3">
         <f>AVERAGE('[2]Csr, Winter'!C$2:C$6)</f>
-        <v>19.144518966446796</v>
+        <v>71.242898111983521</v>
       </c>
       <c r="D7" s="3">
         <f>AVERAGE('[2]Csr, Winter'!D$2:D$6)</f>
-        <v>18.073708090017288</v>
+        <v>67.258067242094612</v>
       </c>
       <c r="E7" s="3">
         <f>AVERAGE('[2]Csr, Winter'!E$2:E$6)</f>
-        <v>19.144518966446793</v>
+        <v>71.242898111983521</v>
       </c>
       <c r="F7" s="3">
         <f>AVERAGE('[2]Csr, Winter'!F$2:F$6)</f>
-        <v>18.95637215301775</v>
+        <v>70.542743447209119</v>
       </c>
       <c r="G7" s="3">
         <f>AVERAGE('[2]Csr, Winter'!G$2:G$6)</f>
-        <v>20.145645837902578</v>
+        <v>74.968412439363391</v>
       </c>
       <c r="H7" s="3">
         <f>AVERAGE('[2]Csr, Winter'!H$2:H$6)</f>
-        <v>21.023664300571454</v>
+        <v>78.235800874977286</v>
       </c>
       <c r="I7" s="3">
         <f>AVERAGE('[2]Csr, Winter'!I$2:I$6)</f>
-        <v>9.8951287062683004</v>
+        <v>36.822949036283646</v>
       </c>
       <c r="J7" s="3">
         <f>AVERAGE('[2]Csr, Winter'!J$2:J$6)</f>
-        <v>5.8697160189530511</v>
+        <v>21.843096764011445</v>
       </c>
       <c r="K7" s="3">
         <f>AVERAGE('[2]Csr, Winter'!K$2:K$6)</f>
-        <v>2.8268478017672587</v>
+        <v>10.519607741116712</v>
       </c>
       <c r="L7" s="3">
         <f>AVERAGE('[2]Csr, Winter'!L$2:L$6)</f>
-        <v>3.8256518730572524</v>
+        <v>14.236478183746282</v>
       </c>
       <c r="M7" s="3">
         <f>AVERAGE('[2]Csr, Winter'!M$2:M$6)</f>
-        <v>3.6467962602913695</v>
+        <v>13.570899057973079</v>
       </c>
       <c r="N7" s="3">
         <f>AVERAGE('[2]Csr, Winter'!N$2:N$6)</f>
-        <v>4.506232321633922</v>
+        <v>16.769136415584569</v>
       </c>
       <c r="O7" s="3">
         <f>AVERAGE('[2]Csr, Winter'!O$2:O$6)</f>
-        <v>5.1148059650710795</v>
+        <v>19.03383422016352</v>
       </c>
       <c r="P7" s="3">
         <f>AVERAGE('[2]Csr, Winter'!P$2:P$6)</f>
-        <v>6.0834136342057947</v>
+        <v>22.638334161039172</v>
       </c>
       <c r="Q7" s="3">
         <f>AVERAGE('[2]Csr, Winter'!Q$2:Q$6)</f>
-        <v>6.2854972486295839</v>
+        <v>23.390352134315386</v>
       </c>
       <c r="R7" s="3">
         <f>AVERAGE('[2]Csr, Winter'!R$2:R$6)</f>
-        <v>5.8488108174609357</v>
+        <v>21.765301801258737</v>
       </c>
       <c r="S7" s="3">
         <f>AVERAGE('[2]Csr, Winter'!S$2:S$6)</f>
-        <v>3.6212454584676719</v>
+        <v>13.475816325719766</v>
       </c>
       <c r="T7" s="3">
         <f>AVERAGE('[2]Csr, Winter'!T$2:T$6)</f>
-        <v>4.6897335347313849</v>
+        <v>17.452003310858377</v>
       </c>
       <c r="U7" s="3">
         <f>AVERAGE('[2]Csr, Winter'!U$2:U$6)</f>
-        <v>4.8337471450104079</v>
+        <v>17.987924165377056</v>
       </c>
       <c r="V7" s="3">
         <f>AVERAGE('[2]Csr, Winter'!V$2:V$6)</f>
-        <v>3.1125522221595121</v>
+        <v>11.582805565403776</v>
       </c>
       <c r="W7" s="3">
         <f>AVERAGE('[2]Csr, Winter'!W$2:W$6)</f>
-        <v>3.0777102196726522</v>
+        <v>11.453147294149256</v>
       </c>
       <c r="X7" s="3">
         <f>AVERAGE('[2]Csr, Winter'!X$2:X$6)</f>
-        <v>6.3923460562559544</v>
+        <v>23.787970832829245</v>
       </c>
       <c r="Y7" s="3">
         <f>AVERAGE('[2]Csr, Winter'!Y$2:Y$6)</f>
-        <v>13.047168531246253</v>
+        <v>48.552700642442538</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -26751,99 +26751,99 @@
       </c>
       <c r="B8" s="3">
         <f>AVERAGE('[2]Csr, Winter'!B$2:B$6)</f>
-        <v>19.983049826297229</v>
+        <v>74.363340506842292</v>
       </c>
       <c r="C8" s="3">
         <f>AVERAGE('[2]Csr, Winter'!C$2:C$6)</f>
-        <v>19.144518966446796</v>
+        <v>71.242898111983521</v>
       </c>
       <c r="D8" s="3">
         <f>AVERAGE('[2]Csr, Winter'!D$2:D$6)</f>
-        <v>18.073708090017288</v>
+        <v>67.258067242094612</v>
       </c>
       <c r="E8" s="3">
         <f>AVERAGE('[2]Csr, Winter'!E$2:E$6)</f>
-        <v>19.144518966446793</v>
+        <v>71.242898111983521</v>
       </c>
       <c r="F8" s="3">
         <f>AVERAGE('[2]Csr, Winter'!F$2:F$6)</f>
-        <v>18.95637215301775</v>
+        <v>70.542743447209119</v>
       </c>
       <c r="G8" s="3">
         <f>AVERAGE('[2]Csr, Winter'!G$2:G$6)</f>
-        <v>20.145645837902578</v>
+        <v>74.968412439363391</v>
       </c>
       <c r="H8" s="3">
         <f>AVERAGE('[2]Csr, Winter'!H$2:H$6)</f>
-        <v>21.023664300571454</v>
+        <v>78.235800874977286</v>
       </c>
       <c r="I8" s="3">
         <f>AVERAGE('[2]Csr, Winter'!I$2:I$6)</f>
-        <v>9.8951287062683004</v>
+        <v>36.822949036283646</v>
       </c>
       <c r="J8" s="3">
         <f>AVERAGE('[2]Csr, Winter'!J$2:J$6)</f>
-        <v>5.8697160189530511</v>
+        <v>21.843096764011445</v>
       </c>
       <c r="K8" s="3">
         <f>AVERAGE('[2]Csr, Winter'!K$2:K$6)</f>
-        <v>2.8268478017672587</v>
+        <v>10.519607741116712</v>
       </c>
       <c r="L8" s="3">
         <f>AVERAGE('[2]Csr, Winter'!L$2:L$6)</f>
-        <v>3.8256518730572524</v>
+        <v>14.236478183746282</v>
       </c>
       <c r="M8" s="3">
         <f>AVERAGE('[2]Csr, Winter'!M$2:M$6)</f>
-        <v>3.6467962602913695</v>
+        <v>13.570899057973079</v>
       </c>
       <c r="N8" s="3">
         <f>AVERAGE('[2]Csr, Winter'!N$2:N$6)</f>
-        <v>4.506232321633922</v>
+        <v>16.769136415584569</v>
       </c>
       <c r="O8" s="3">
         <f>AVERAGE('[2]Csr, Winter'!O$2:O$6)</f>
-        <v>5.1148059650710795</v>
+        <v>19.03383422016352</v>
       </c>
       <c r="P8" s="3">
         <f>AVERAGE('[2]Csr, Winter'!P$2:P$6)</f>
-        <v>6.0834136342057947</v>
+        <v>22.638334161039172</v>
       </c>
       <c r="Q8" s="3">
         <f>AVERAGE('[2]Csr, Winter'!Q$2:Q$6)</f>
-        <v>6.2854972486295839</v>
+        <v>23.390352134315386</v>
       </c>
       <c r="R8" s="3">
         <f>AVERAGE('[2]Csr, Winter'!R$2:R$6)</f>
-        <v>5.8488108174609357</v>
+        <v>21.765301801258737</v>
       </c>
       <c r="S8" s="3">
         <f>AVERAGE('[2]Csr, Winter'!S$2:S$6)</f>
-        <v>3.6212454584676719</v>
+        <v>13.475816325719766</v>
       </c>
       <c r="T8" s="3">
         <f>AVERAGE('[2]Csr, Winter'!T$2:T$6)</f>
-        <v>4.6897335347313849</v>
+        <v>17.452003310858377</v>
       </c>
       <c r="U8" s="3">
         <f>AVERAGE('[2]Csr, Winter'!U$2:U$6)</f>
-        <v>4.8337471450104079</v>
+        <v>17.987924165377056</v>
       </c>
       <c r="V8" s="3">
         <f>AVERAGE('[2]Csr, Winter'!V$2:V$6)</f>
-        <v>3.1125522221595121</v>
+        <v>11.582805565403776</v>
       </c>
       <c r="W8" s="3">
         <f>AVERAGE('[2]Csr, Winter'!W$2:W$6)</f>
-        <v>3.0777102196726522</v>
+        <v>11.453147294149256</v>
       </c>
       <c r="X8" s="3">
         <f>AVERAGE('[2]Csr, Winter'!X$2:X$6)</f>
-        <v>6.3923460562559544</v>
+        <v>23.787970832829245</v>
       </c>
       <c r="Y8" s="3">
         <f>AVERAGE('[2]Csr, Winter'!Y$2:Y$6)</f>
-        <v>13.047168531246253</v>
+        <v>48.552700642442538</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -26852,99 +26852,99 @@
       </c>
       <c r="B9" s="3">
         <f>AVERAGE('[2]Csr, Winter'!B$2:B$6)</f>
-        <v>19.983049826297229</v>
+        <v>74.363340506842292</v>
       </c>
       <c r="C9" s="3">
         <f>AVERAGE('[2]Csr, Winter'!C$2:C$6)</f>
-        <v>19.144518966446796</v>
+        <v>71.242898111983521</v>
       </c>
       <c r="D9" s="3">
         <f>AVERAGE('[2]Csr, Winter'!D$2:D$6)</f>
-        <v>18.073708090017288</v>
+        <v>67.258067242094612</v>
       </c>
       <c r="E9" s="3">
         <f>AVERAGE('[2]Csr, Winter'!E$2:E$6)</f>
-        <v>19.144518966446793</v>
+        <v>71.242898111983521</v>
       </c>
       <c r="F9" s="3">
         <f>AVERAGE('[2]Csr, Winter'!F$2:F$6)</f>
-        <v>18.95637215301775</v>
+        <v>70.542743447209119</v>
       </c>
       <c r="G9" s="3">
         <f>AVERAGE('[2]Csr, Winter'!G$2:G$6)</f>
-        <v>20.145645837902578</v>
+        <v>74.968412439363391</v>
       </c>
       <c r="H9" s="3">
         <f>AVERAGE('[2]Csr, Winter'!H$2:H$6)</f>
-        <v>21.023664300571454</v>
+        <v>78.235800874977286</v>
       </c>
       <c r="I9" s="3">
         <f>AVERAGE('[2]Csr, Winter'!I$2:I$6)</f>
-        <v>9.8951287062683004</v>
+        <v>36.822949036283646</v>
       </c>
       <c r="J9" s="3">
         <f>AVERAGE('[2]Csr, Winter'!J$2:J$6)</f>
-        <v>5.8697160189530511</v>
+        <v>21.843096764011445</v>
       </c>
       <c r="K9" s="3">
         <f>AVERAGE('[2]Csr, Winter'!K$2:K$6)</f>
-        <v>2.8268478017672587</v>
+        <v>10.519607741116712</v>
       </c>
       <c r="L9" s="3">
         <f>AVERAGE('[2]Csr, Winter'!L$2:L$6)</f>
-        <v>3.8256518730572524</v>
+        <v>14.236478183746282</v>
       </c>
       <c r="M9" s="3">
         <f>AVERAGE('[2]Csr, Winter'!M$2:M$6)</f>
-        <v>3.6467962602913695</v>
+        <v>13.570899057973079</v>
       </c>
       <c r="N9" s="3">
         <f>AVERAGE('[2]Csr, Winter'!N$2:N$6)</f>
-        <v>4.506232321633922</v>
+        <v>16.769136415584569</v>
       </c>
       <c r="O9" s="3">
         <f>AVERAGE('[2]Csr, Winter'!O$2:O$6)</f>
-        <v>5.1148059650710795</v>
+        <v>19.03383422016352</v>
       </c>
       <c r="P9" s="3">
         <f>AVERAGE('[2]Csr, Winter'!P$2:P$6)</f>
-        <v>6.0834136342057947</v>
+        <v>22.638334161039172</v>
       </c>
       <c r="Q9" s="3">
         <f>AVERAGE('[2]Csr, Winter'!Q$2:Q$6)</f>
-        <v>6.2854972486295839</v>
+        <v>23.390352134315386</v>
       </c>
       <c r="R9" s="3">
         <f>AVERAGE('[2]Csr, Winter'!R$2:R$6)</f>
-        <v>5.8488108174609357</v>
+        <v>21.765301801258737</v>
       </c>
       <c r="S9" s="3">
         <f>AVERAGE('[2]Csr, Winter'!S$2:S$6)</f>
-        <v>3.6212454584676719</v>
+        <v>13.475816325719766</v>
       </c>
       <c r="T9" s="3">
         <f>AVERAGE('[2]Csr, Winter'!T$2:T$6)</f>
-        <v>4.6897335347313849</v>
+        <v>17.452003310858377</v>
       </c>
       <c r="U9" s="3">
         <f>AVERAGE('[2]Csr, Winter'!U$2:U$6)</f>
-        <v>4.8337471450104079</v>
+        <v>17.987924165377056</v>
       </c>
       <c r="V9" s="3">
         <f>AVERAGE('[2]Csr, Winter'!V$2:V$6)</f>
-        <v>3.1125522221595121</v>
+        <v>11.582805565403776</v>
       </c>
       <c r="W9" s="3">
         <f>AVERAGE('[2]Csr, Winter'!W$2:W$6)</f>
-        <v>3.0777102196726522</v>
+        <v>11.453147294149256</v>
       </c>
       <c r="X9" s="3">
         <f>AVERAGE('[2]Csr, Winter'!X$2:X$6)</f>
-        <v>6.3923460562559544</v>
+        <v>23.787970832829245</v>
       </c>
       <c r="Y9" s="3">
         <f>AVERAGE('[2]Csr, Winter'!Y$2:Y$6)</f>
-        <v>13.047168531246253</v>
+        <v>48.552700642442538</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -26953,99 +26953,99 @@
       </c>
       <c r="B10" s="3">
         <f>AVERAGE('[2]Csr, Winter'!B$2:B$6)</f>
-        <v>19.983049826297229</v>
+        <v>74.363340506842292</v>
       </c>
       <c r="C10" s="3">
         <f>AVERAGE('[2]Csr, Winter'!C$2:C$6)</f>
-        <v>19.144518966446796</v>
+        <v>71.242898111983521</v>
       </c>
       <c r="D10" s="3">
         <f>AVERAGE('[2]Csr, Winter'!D$2:D$6)</f>
-        <v>18.073708090017288</v>
+        <v>67.258067242094612</v>
       </c>
       <c r="E10" s="3">
         <f>AVERAGE('[2]Csr, Winter'!E$2:E$6)</f>
-        <v>19.144518966446793</v>
+        <v>71.242898111983521</v>
       </c>
       <c r="F10" s="3">
         <f>AVERAGE('[2]Csr, Winter'!F$2:F$6)</f>
-        <v>18.95637215301775</v>
+        <v>70.542743447209119</v>
       </c>
       <c r="G10" s="3">
         <f>AVERAGE('[2]Csr, Winter'!G$2:G$6)</f>
-        <v>20.145645837902578</v>
+        <v>74.968412439363391</v>
       </c>
       <c r="H10" s="3">
         <f>AVERAGE('[2]Csr, Winter'!H$2:H$6)</f>
-        <v>21.023664300571454</v>
+        <v>78.235800874977286</v>
       </c>
       <c r="I10" s="3">
         <f>AVERAGE('[2]Csr, Winter'!I$2:I$6)</f>
-        <v>9.8951287062683004</v>
+        <v>36.822949036283646</v>
       </c>
       <c r="J10" s="3">
         <f>AVERAGE('[2]Csr, Winter'!J$2:J$6)</f>
-        <v>5.8697160189530511</v>
+        <v>21.843096764011445</v>
       </c>
       <c r="K10" s="3">
         <f>AVERAGE('[2]Csr, Winter'!K$2:K$6)</f>
-        <v>2.8268478017672587</v>
+        <v>10.519607741116712</v>
       </c>
       <c r="L10" s="3">
         <f>AVERAGE('[2]Csr, Winter'!L$2:L$6)</f>
-        <v>3.8256518730572524</v>
+        <v>14.236478183746282</v>
       </c>
       <c r="M10" s="3">
         <f>AVERAGE('[2]Csr, Winter'!M$2:M$6)</f>
-        <v>3.6467962602913695</v>
+        <v>13.570899057973079</v>
       </c>
       <c r="N10" s="3">
         <f>AVERAGE('[2]Csr, Winter'!N$2:N$6)</f>
-        <v>4.506232321633922</v>
+        <v>16.769136415584569</v>
       </c>
       <c r="O10" s="3">
         <f>AVERAGE('[2]Csr, Winter'!O$2:O$6)</f>
-        <v>5.1148059650710795</v>
+        <v>19.03383422016352</v>
       </c>
       <c r="P10" s="3">
         <f>AVERAGE('[2]Csr, Winter'!P$2:P$6)</f>
-        <v>6.0834136342057947</v>
+        <v>22.638334161039172</v>
       </c>
       <c r="Q10" s="3">
         <f>AVERAGE('[2]Csr, Winter'!Q$2:Q$6)</f>
-        <v>6.2854972486295839</v>
+        <v>23.390352134315386</v>
       </c>
       <c r="R10" s="3">
         <f>AVERAGE('[2]Csr, Winter'!R$2:R$6)</f>
-        <v>5.8488108174609357</v>
+        <v>21.765301801258737</v>
       </c>
       <c r="S10" s="3">
         <f>AVERAGE('[2]Csr, Winter'!S$2:S$6)</f>
-        <v>3.6212454584676719</v>
+        <v>13.475816325719766</v>
       </c>
       <c r="T10" s="3">
         <f>AVERAGE('[2]Csr, Winter'!T$2:T$6)</f>
-        <v>4.6897335347313849</v>
+        <v>17.452003310858377</v>
       </c>
       <c r="U10" s="3">
         <f>AVERAGE('[2]Csr, Winter'!U$2:U$6)</f>
-        <v>4.8337471450104079</v>
+        <v>17.987924165377056</v>
       </c>
       <c r="V10" s="3">
         <f>AVERAGE('[2]Csr, Winter'!V$2:V$6)</f>
-        <v>3.1125522221595121</v>
+        <v>11.582805565403776</v>
       </c>
       <c r="W10" s="3">
         <f>AVERAGE('[2]Csr, Winter'!W$2:W$6)</f>
-        <v>3.0777102196726522</v>
+        <v>11.453147294149256</v>
       </c>
       <c r="X10" s="3">
         <f>AVERAGE('[2]Csr, Winter'!X$2:X$6)</f>
-        <v>6.3923460562559544</v>
+        <v>23.787970832829245</v>
       </c>
       <c r="Y10" s="3">
         <f>AVERAGE('[2]Csr, Winter'!Y$2:Y$6)</f>
-        <v>13.047168531246253</v>
+        <v>48.552700642442538</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
@@ -27054,99 +27054,99 @@
       </c>
       <c r="B11" s="3">
         <f>AVERAGE('[2]Csr, Winter'!B$2:B$6)</f>
-        <v>19.983049826297229</v>
+        <v>74.363340506842292</v>
       </c>
       <c r="C11" s="3">
         <f>AVERAGE('[2]Csr, Winter'!C$2:C$6)</f>
-        <v>19.144518966446796</v>
+        <v>71.242898111983521</v>
       </c>
       <c r="D11" s="3">
         <f>AVERAGE('[2]Csr, Winter'!D$2:D$6)</f>
-        <v>18.073708090017288</v>
+        <v>67.258067242094612</v>
       </c>
       <c r="E11" s="3">
         <f>AVERAGE('[2]Csr, Winter'!E$2:E$6)</f>
-        <v>19.144518966446793</v>
+        <v>71.242898111983521</v>
       </c>
       <c r="F11" s="3">
         <f>AVERAGE('[2]Csr, Winter'!F$2:F$6)</f>
-        <v>18.95637215301775</v>
+        <v>70.542743447209119</v>
       </c>
       <c r="G11" s="3">
         <f>AVERAGE('[2]Csr, Winter'!G$2:G$6)</f>
-        <v>20.145645837902578</v>
+        <v>74.968412439363391</v>
       </c>
       <c r="H11" s="3">
         <f>AVERAGE('[2]Csr, Winter'!H$2:H$6)</f>
-        <v>21.023664300571454</v>
+        <v>78.235800874977286</v>
       </c>
       <c r="I11" s="3">
         <f>AVERAGE('[2]Csr, Winter'!I$2:I$6)</f>
-        <v>9.8951287062683004</v>
+        <v>36.822949036283646</v>
       </c>
       <c r="J11" s="3">
         <f>AVERAGE('[2]Csr, Winter'!J$2:J$6)</f>
-        <v>5.8697160189530511</v>
+        <v>21.843096764011445</v>
       </c>
       <c r="K11" s="3">
         <f>AVERAGE('[2]Csr, Winter'!K$2:K$6)</f>
-        <v>2.8268478017672587</v>
+        <v>10.519607741116712</v>
       </c>
       <c r="L11" s="3">
         <f>AVERAGE('[2]Csr, Winter'!L$2:L$6)</f>
-        <v>3.8256518730572524</v>
+        <v>14.236478183746282</v>
       </c>
       <c r="M11" s="3">
         <f>AVERAGE('[2]Csr, Winter'!M$2:M$6)</f>
-        <v>3.6467962602913695</v>
+        <v>13.570899057973079</v>
       </c>
       <c r="N11" s="3">
         <f>AVERAGE('[2]Csr, Winter'!N$2:N$6)</f>
-        <v>4.506232321633922</v>
+        <v>16.769136415584569</v>
       </c>
       <c r="O11" s="3">
         <f>AVERAGE('[2]Csr, Winter'!O$2:O$6)</f>
-        <v>5.1148059650710795</v>
+        <v>19.03383422016352</v>
       </c>
       <c r="P11" s="3">
         <f>AVERAGE('[2]Csr, Winter'!P$2:P$6)</f>
-        <v>6.0834136342057947</v>
+        <v>22.638334161039172</v>
       </c>
       <c r="Q11" s="3">
         <f>AVERAGE('[2]Csr, Winter'!Q$2:Q$6)</f>
-        <v>6.2854972486295839</v>
+        <v>23.390352134315386</v>
       </c>
       <c r="R11" s="3">
         <f>AVERAGE('[2]Csr, Winter'!R$2:R$6)</f>
-        <v>5.8488108174609357</v>
+        <v>21.765301801258737</v>
       </c>
       <c r="S11" s="3">
         <f>AVERAGE('[2]Csr, Winter'!S$2:S$6)</f>
-        <v>3.6212454584676719</v>
+        <v>13.475816325719766</v>
       </c>
       <c r="T11" s="3">
         <f>AVERAGE('[2]Csr, Winter'!T$2:T$6)</f>
-        <v>4.6897335347313849</v>
+        <v>17.452003310858377</v>
       </c>
       <c r="U11" s="3">
         <f>AVERAGE('[2]Csr, Winter'!U$2:U$6)</f>
-        <v>4.8337471450104079</v>
+        <v>17.987924165377056</v>
       </c>
       <c r="V11" s="3">
         <f>AVERAGE('[2]Csr, Winter'!V$2:V$6)</f>
-        <v>3.1125522221595121</v>
+        <v>11.582805565403776</v>
       </c>
       <c r="W11" s="3">
         <f>AVERAGE('[2]Csr, Winter'!W$2:W$6)</f>
-        <v>3.0777102196726522</v>
+        <v>11.453147294149256</v>
       </c>
       <c r="X11" s="3">
         <f>AVERAGE('[2]Csr, Winter'!X$2:X$6)</f>
-        <v>6.3923460562559544</v>
+        <v>23.787970832829245</v>
       </c>
       <c r="Y11" s="3">
         <f>AVERAGE('[2]Csr, Winter'!Y$2:Y$6)</f>
-        <v>13.047168531246253</v>
+        <v>48.552700642442538</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
@@ -27155,99 +27155,99 @@
       </c>
       <c r="B12" s="3">
         <f>AVERAGE('[2]Csr, Winter'!B$2:B$6)</f>
-        <v>19.983049826297229</v>
+        <v>74.363340506842292</v>
       </c>
       <c r="C12" s="3">
         <f>AVERAGE('[2]Csr, Winter'!C$2:C$6)</f>
-        <v>19.144518966446796</v>
+        <v>71.242898111983521</v>
       </c>
       <c r="D12" s="3">
         <f>AVERAGE('[2]Csr, Winter'!D$2:D$6)</f>
-        <v>18.073708090017288</v>
+        <v>67.258067242094612</v>
       </c>
       <c r="E12" s="3">
         <f>AVERAGE('[2]Csr, Winter'!E$2:E$6)</f>
-        <v>19.144518966446793</v>
+        <v>71.242898111983521</v>
       </c>
       <c r="F12" s="3">
         <f>AVERAGE('[2]Csr, Winter'!F$2:F$6)</f>
-        <v>18.95637215301775</v>
+        <v>70.542743447209119</v>
       </c>
       <c r="G12" s="3">
         <f>AVERAGE('[2]Csr, Winter'!G$2:G$6)</f>
-        <v>20.145645837902578</v>
+        <v>74.968412439363391</v>
       </c>
       <c r="H12" s="3">
         <f>AVERAGE('[2]Csr, Winter'!H$2:H$6)</f>
-        <v>21.023664300571454</v>
+        <v>78.235800874977286</v>
       </c>
       <c r="I12" s="3">
         <f>AVERAGE('[2]Csr, Winter'!I$2:I$6)</f>
-        <v>9.8951287062683004</v>
+        <v>36.822949036283646</v>
       </c>
       <c r="J12" s="3">
         <f>AVERAGE('[2]Csr, Winter'!J$2:J$6)</f>
-        <v>5.8697160189530511</v>
+        <v>21.843096764011445</v>
       </c>
       <c r="K12" s="3">
         <f>AVERAGE('[2]Csr, Winter'!K$2:K$6)</f>
-        <v>2.8268478017672587</v>
+        <v>10.519607741116712</v>
       </c>
       <c r="L12" s="3">
         <f>AVERAGE('[2]Csr, Winter'!L$2:L$6)</f>
-        <v>3.8256518730572524</v>
+        <v>14.236478183746282</v>
       </c>
       <c r="M12" s="3">
         <f>AVERAGE('[2]Csr, Winter'!M$2:M$6)</f>
-        <v>3.6467962602913695</v>
+        <v>13.570899057973079</v>
       </c>
       <c r="N12" s="3">
         <f>AVERAGE('[2]Csr, Winter'!N$2:N$6)</f>
-        <v>4.506232321633922</v>
+        <v>16.769136415584569</v>
       </c>
       <c r="O12" s="3">
         <f>AVERAGE('[2]Csr, Winter'!O$2:O$6)</f>
-        <v>5.1148059650710795</v>
+        <v>19.03383422016352</v>
       </c>
       <c r="P12" s="3">
         <f>AVERAGE('[2]Csr, Winter'!P$2:P$6)</f>
-        <v>6.0834136342057947</v>
+        <v>22.638334161039172</v>
       </c>
       <c r="Q12" s="3">
         <f>AVERAGE('[2]Csr, Winter'!Q$2:Q$6)</f>
-        <v>6.2854972486295839</v>
+        <v>23.390352134315386</v>
       </c>
       <c r="R12" s="3">
         <f>AVERAGE('[2]Csr, Winter'!R$2:R$6)</f>
-        <v>5.8488108174609357</v>
+        <v>21.765301801258737</v>
       </c>
       <c r="S12" s="3">
         <f>AVERAGE('[2]Csr, Winter'!S$2:S$6)</f>
-        <v>3.6212454584676719</v>
+        <v>13.475816325719766</v>
       </c>
       <c r="T12" s="3">
         <f>AVERAGE('[2]Csr, Winter'!T$2:T$6)</f>
-        <v>4.6897335347313849</v>
+        <v>17.452003310858377</v>
       </c>
       <c r="U12" s="3">
         <f>AVERAGE('[2]Csr, Winter'!U$2:U$6)</f>
-        <v>4.8337471450104079</v>
+        <v>17.987924165377056</v>
       </c>
       <c r="V12" s="3">
         <f>AVERAGE('[2]Csr, Winter'!V$2:V$6)</f>
-        <v>3.1125522221595121</v>
+        <v>11.582805565403776</v>
       </c>
       <c r="W12" s="3">
         <f>AVERAGE('[2]Csr, Winter'!W$2:W$6)</f>
-        <v>3.0777102196726522</v>
+        <v>11.453147294149256</v>
       </c>
       <c r="X12" s="3">
         <f>AVERAGE('[2]Csr, Winter'!X$2:X$6)</f>
-        <v>6.3923460562559544</v>
+        <v>23.787970832829245</v>
       </c>
       <c r="Y12" s="3">
         <f>AVERAGE('[2]Csr, Winter'!Y$2:Y$6)</f>
-        <v>13.047168531246253</v>
+        <v>48.552700642442538</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
@@ -27256,99 +27256,99 @@
       </c>
       <c r="B13" s="3">
         <f>AVERAGE('[2]Csr, Winter'!B$2:B$6)</f>
-        <v>19.983049826297229</v>
+        <v>74.363340506842292</v>
       </c>
       <c r="C13" s="3">
         <f>AVERAGE('[2]Csr, Winter'!C$2:C$6)</f>
-        <v>19.144518966446796</v>
+        <v>71.242898111983521</v>
       </c>
       <c r="D13" s="3">
         <f>AVERAGE('[2]Csr, Winter'!D$2:D$6)</f>
-        <v>18.073708090017288</v>
+        <v>67.258067242094612</v>
       </c>
       <c r="E13" s="3">
         <f>AVERAGE('[2]Csr, Winter'!E$2:E$6)</f>
-        <v>19.144518966446793</v>
+        <v>71.242898111983521</v>
       </c>
       <c r="F13" s="3">
         <f>AVERAGE('[2]Csr, Winter'!F$2:F$6)</f>
-        <v>18.95637215301775</v>
+        <v>70.542743447209119</v>
       </c>
       <c r="G13" s="3">
         <f>AVERAGE('[2]Csr, Winter'!G$2:G$6)</f>
-        <v>20.145645837902578</v>
+        <v>74.968412439363391</v>
       </c>
       <c r="H13" s="3">
         <f>AVERAGE('[2]Csr, Winter'!H$2:H$6)</f>
-        <v>21.023664300571454</v>
+        <v>78.235800874977286</v>
       </c>
       <c r="I13" s="3">
         <f>AVERAGE('[2]Csr, Winter'!I$2:I$6)</f>
-        <v>9.8951287062683004</v>
+        <v>36.822949036283646</v>
       </c>
       <c r="J13" s="3">
         <f>AVERAGE('[2]Csr, Winter'!J$2:J$6)</f>
-        <v>5.8697160189530511</v>
+        <v>21.843096764011445</v>
       </c>
       <c r="K13" s="3">
         <f>AVERAGE('[2]Csr, Winter'!K$2:K$6)</f>
-        <v>2.8268478017672587</v>
+        <v>10.519607741116712</v>
       </c>
       <c r="L13" s="3">
         <f>AVERAGE('[2]Csr, Winter'!L$2:L$6)</f>
-        <v>3.8256518730572524</v>
+        <v>14.236478183746282</v>
       </c>
       <c r="M13" s="3">
         <f>AVERAGE('[2]Csr, Winter'!M$2:M$6)</f>
-        <v>3.6467962602913695</v>
+        <v>13.570899057973079</v>
       </c>
       <c r="N13" s="3">
         <f>AVERAGE('[2]Csr, Winter'!N$2:N$6)</f>
-        <v>4.506232321633922</v>
+        <v>16.769136415584569</v>
       </c>
       <c r="O13" s="3">
         <f>AVERAGE('[2]Csr, Winter'!O$2:O$6)</f>
-        <v>5.1148059650710795</v>
+        <v>19.03383422016352</v>
       </c>
       <c r="P13" s="3">
         <f>AVERAGE('[2]Csr, Winter'!P$2:P$6)</f>
-        <v>6.0834136342057947</v>
+        <v>22.638334161039172</v>
       </c>
       <c r="Q13" s="3">
         <f>AVERAGE('[2]Csr, Winter'!Q$2:Q$6)</f>
-        <v>6.2854972486295839</v>
+        <v>23.390352134315386</v>
       </c>
       <c r="R13" s="3">
         <f>AVERAGE('[2]Csr, Winter'!R$2:R$6)</f>
-        <v>5.8488108174609357</v>
+        <v>21.765301801258737</v>
       </c>
       <c r="S13" s="3">
         <f>AVERAGE('[2]Csr, Winter'!S$2:S$6)</f>
-        <v>3.6212454584676719</v>
+        <v>13.475816325719766</v>
       </c>
       <c r="T13" s="3">
         <f>AVERAGE('[2]Csr, Winter'!T$2:T$6)</f>
-        <v>4.6897335347313849</v>
+        <v>17.452003310858377</v>
       </c>
       <c r="U13" s="3">
         <f>AVERAGE('[2]Csr, Winter'!U$2:U$6)</f>
-        <v>4.8337471450104079</v>
+        <v>17.987924165377056</v>
       </c>
       <c r="V13" s="3">
         <f>AVERAGE('[2]Csr, Winter'!V$2:V$6)</f>
-        <v>3.1125522221595121</v>
+        <v>11.582805565403776</v>
       </c>
       <c r="W13" s="3">
         <f>AVERAGE('[2]Csr, Winter'!W$2:W$6)</f>
-        <v>3.0777102196726522</v>
+        <v>11.453147294149256</v>
       </c>
       <c r="X13" s="3">
         <f>AVERAGE('[2]Csr, Winter'!X$2:X$6)</f>
-        <v>6.3923460562559544</v>
+        <v>23.787970832829245</v>
       </c>
       <c r="Y13" s="3">
         <f>AVERAGE('[2]Csr, Winter'!Y$2:Y$6)</f>
-        <v>13.047168531246253</v>
+        <v>48.552700642442538</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -27357,99 +27357,99 @@
       </c>
       <c r="B14" s="3">
         <f>AVERAGE('[2]Csr, Winter'!B$2:B$6)</f>
-        <v>19.983049826297229</v>
+        <v>74.363340506842292</v>
       </c>
       <c r="C14" s="3">
         <f>AVERAGE('[2]Csr, Winter'!C$2:C$6)</f>
-        <v>19.144518966446796</v>
+        <v>71.242898111983521</v>
       </c>
       <c r="D14" s="3">
         <f>AVERAGE('[2]Csr, Winter'!D$2:D$6)</f>
-        <v>18.073708090017288</v>
+        <v>67.258067242094612</v>
       </c>
       <c r="E14" s="3">
         <f>AVERAGE('[2]Csr, Winter'!E$2:E$6)</f>
-        <v>19.144518966446793</v>
+        <v>71.242898111983521</v>
       </c>
       <c r="F14" s="3">
         <f>AVERAGE('[2]Csr, Winter'!F$2:F$6)</f>
-        <v>18.95637215301775</v>
+        <v>70.542743447209119</v>
       </c>
       <c r="G14" s="3">
         <f>AVERAGE('[2]Csr, Winter'!G$2:G$6)</f>
-        <v>20.145645837902578</v>
+        <v>74.968412439363391</v>
       </c>
       <c r="H14" s="3">
         <f>AVERAGE('[2]Csr, Winter'!H$2:H$6)</f>
-        <v>21.023664300571454</v>
+        <v>78.235800874977286</v>
       </c>
       <c r="I14" s="3">
         <f>AVERAGE('[2]Csr, Winter'!I$2:I$6)</f>
-        <v>9.8951287062683004</v>
+        <v>36.822949036283646</v>
       </c>
       <c r="J14" s="3">
         <f>AVERAGE('[2]Csr, Winter'!J$2:J$6)</f>
-        <v>5.8697160189530511</v>
+        <v>21.843096764011445</v>
       </c>
       <c r="K14" s="3">
         <f>AVERAGE('[2]Csr, Winter'!K$2:K$6)</f>
-        <v>2.8268478017672587</v>
+        <v>10.519607741116712</v>
       </c>
       <c r="L14" s="3">
         <f>AVERAGE('[2]Csr, Winter'!L$2:L$6)</f>
-        <v>3.8256518730572524</v>
+        <v>14.236478183746282</v>
       </c>
       <c r="M14" s="3">
         <f>AVERAGE('[2]Csr, Winter'!M$2:M$6)</f>
-        <v>3.6467962602913695</v>
+        <v>13.570899057973079</v>
       </c>
       <c r="N14" s="3">
         <f>AVERAGE('[2]Csr, Winter'!N$2:N$6)</f>
-        <v>4.506232321633922</v>
+        <v>16.769136415584569</v>
       </c>
       <c r="O14" s="3">
         <f>AVERAGE('[2]Csr, Winter'!O$2:O$6)</f>
-        <v>5.1148059650710795</v>
+        <v>19.03383422016352</v>
       </c>
       <c r="P14" s="3">
         <f>AVERAGE('[2]Csr, Winter'!P$2:P$6)</f>
-        <v>6.0834136342057947</v>
+        <v>22.638334161039172</v>
       </c>
       <c r="Q14" s="3">
         <f>AVERAGE('[2]Csr, Winter'!Q$2:Q$6)</f>
-        <v>6.2854972486295839</v>
+        <v>23.390352134315386</v>
       </c>
       <c r="R14" s="3">
         <f>AVERAGE('[2]Csr, Winter'!R$2:R$6)</f>
-        <v>5.8488108174609357</v>
+        <v>21.765301801258737</v>
       </c>
       <c r="S14" s="3">
         <f>AVERAGE('[2]Csr, Winter'!S$2:S$6)</f>
-        <v>3.6212454584676719</v>
+        <v>13.475816325719766</v>
       </c>
       <c r="T14" s="3">
         <f>AVERAGE('[2]Csr, Winter'!T$2:T$6)</f>
-        <v>4.6897335347313849</v>
+        <v>17.452003310858377</v>
       </c>
       <c r="U14" s="3">
         <f>AVERAGE('[2]Csr, Winter'!U$2:U$6)</f>
-        <v>4.8337471450104079</v>
+        <v>17.987924165377056</v>
       </c>
       <c r="V14" s="3">
         <f>AVERAGE('[2]Csr, Winter'!V$2:V$6)</f>
-        <v>3.1125522221595121</v>
+        <v>11.582805565403776</v>
       </c>
       <c r="W14" s="3">
         <f>AVERAGE('[2]Csr, Winter'!W$2:W$6)</f>
-        <v>3.0777102196726522</v>
+        <v>11.453147294149256</v>
       </c>
       <c r="X14" s="3">
         <f>AVERAGE('[2]Csr, Winter'!X$2:X$6)</f>
-        <v>6.3923460562559544</v>
+        <v>23.787970832829245</v>
       </c>
       <c r="Y14" s="3">
         <f>AVERAGE('[2]Csr, Winter'!Y$2:Y$6)</f>
-        <v>13.047168531246253</v>
+        <v>48.552700642442538</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
@@ -27458,99 +27458,99 @@
       </c>
       <c r="B15" s="3">
         <f>AVERAGE('[2]Csr, Winter'!B$2:B$6)</f>
-        <v>19.983049826297229</v>
+        <v>74.363340506842292</v>
       </c>
       <c r="C15" s="3">
         <f>AVERAGE('[2]Csr, Winter'!C$2:C$6)</f>
-        <v>19.144518966446796</v>
+        <v>71.242898111983521</v>
       </c>
       <c r="D15" s="3">
         <f>AVERAGE('[2]Csr, Winter'!D$2:D$6)</f>
-        <v>18.073708090017288</v>
+        <v>67.258067242094612</v>
       </c>
       <c r="E15" s="3">
         <f>AVERAGE('[2]Csr, Winter'!E$2:E$6)</f>
-        <v>19.144518966446793</v>
+        <v>71.242898111983521</v>
       </c>
       <c r="F15" s="3">
         <f>AVERAGE('[2]Csr, Winter'!F$2:F$6)</f>
-        <v>18.95637215301775</v>
+        <v>70.542743447209119</v>
       </c>
       <c r="G15" s="3">
         <f>AVERAGE('[2]Csr, Winter'!G$2:G$6)</f>
-        <v>20.145645837902578</v>
+        <v>74.968412439363391</v>
       </c>
       <c r="H15" s="3">
         <f>AVERAGE('[2]Csr, Winter'!H$2:H$6)</f>
-        <v>21.023664300571454</v>
+        <v>78.235800874977286</v>
       </c>
       <c r="I15" s="3">
         <f>AVERAGE('[2]Csr, Winter'!I$2:I$6)</f>
-        <v>9.8951287062683004</v>
+        <v>36.822949036283646</v>
       </c>
       <c r="J15" s="3">
         <f>AVERAGE('[2]Csr, Winter'!J$2:J$6)</f>
-        <v>5.8697160189530511</v>
+        <v>21.843096764011445</v>
       </c>
       <c r="K15" s="3">
         <f>AVERAGE('[2]Csr, Winter'!K$2:K$6)</f>
-        <v>2.8268478017672587</v>
+        <v>10.519607741116712</v>
       </c>
       <c r="L15" s="3">
         <f>AVERAGE('[2]Csr, Winter'!L$2:L$6)</f>
-        <v>3.8256518730572524</v>
+        <v>14.236478183746282</v>
       </c>
       <c r="M15" s="3">
         <f>AVERAGE('[2]Csr, Winter'!M$2:M$6)</f>
-        <v>3.6467962602913695</v>
+        <v>13.570899057973079</v>
       </c>
       <c r="N15" s="3">
         <f>AVERAGE('[2]Csr, Winter'!N$2:N$6)</f>
-        <v>4.506232321633922</v>
+        <v>16.769136415584569</v>
       </c>
       <c r="O15" s="3">
         <f>AVERAGE('[2]Csr, Winter'!O$2:O$6)</f>
-        <v>5.1148059650710795</v>
+        <v>19.03383422016352</v>
       </c>
       <c r="P15" s="3">
         <f>AVERAGE('[2]Csr, Winter'!P$2:P$6)</f>
-        <v>6.0834136342057947</v>
+        <v>22.638334161039172</v>
       </c>
       <c r="Q15" s="3">
         <f>AVERAGE('[2]Csr, Winter'!Q$2:Q$6)</f>
-        <v>6.2854972486295839</v>
+        <v>23.390352134315386</v>
       </c>
       <c r="R15" s="3">
         <f>AVERAGE('[2]Csr, Winter'!R$2:R$6)</f>
-        <v>5.8488108174609357</v>
+        <v>21.765301801258737</v>
       </c>
       <c r="S15" s="3">
         <f>AVERAGE('[2]Csr, Winter'!S$2:S$6)</f>
-        <v>3.6212454584676719</v>
+        <v>13.475816325719766</v>
       </c>
       <c r="T15" s="3">
         <f>AVERAGE('[2]Csr, Winter'!T$2:T$6)</f>
-        <v>4.6897335347313849</v>
+        <v>17.452003310858377</v>
       </c>
       <c r="U15" s="3">
         <f>AVERAGE('[2]Csr, Winter'!U$2:U$6)</f>
-        <v>4.8337471450104079</v>
+        <v>17.987924165377056</v>
       </c>
       <c r="V15" s="3">
         <f>AVERAGE('[2]Csr, Winter'!V$2:V$6)</f>
-        <v>3.1125522221595121</v>
+        <v>11.582805565403776</v>
       </c>
       <c r="W15" s="3">
         <f>AVERAGE('[2]Csr, Winter'!W$2:W$6)</f>
-        <v>3.0777102196726522</v>
+        <v>11.453147294149256</v>
       </c>
       <c r="X15" s="3">
         <f>AVERAGE('[2]Csr, Winter'!X$2:X$6)</f>
-        <v>6.3923460562559544</v>
+        <v>23.787970832829245</v>
       </c>
       <c r="Y15" s="3">
         <f>AVERAGE('[2]Csr, Winter'!Y$2:Y$6)</f>
-        <v>13.047168531246253</v>
+        <v>48.552700642442538</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
@@ -27559,99 +27559,99 @@
       </c>
       <c r="B16" s="3">
         <f>AVERAGE('[2]Csr, Winter'!B$2:B$6)</f>
-        <v>19.983049826297229</v>
+        <v>74.363340506842292</v>
       </c>
       <c r="C16" s="3">
         <f>AVERAGE('[2]Csr, Winter'!C$2:C$6)</f>
-        <v>19.144518966446796</v>
+        <v>71.242898111983521</v>
       </c>
       <c r="D16" s="3">
         <f>AVERAGE('[2]Csr, Winter'!D$2:D$6)</f>
-        <v>18.073708090017288</v>
+        <v>67.258067242094612</v>
       </c>
       <c r="E16" s="3">
         <f>AVERAGE('[2]Csr, Winter'!E$2:E$6)</f>
-        <v>19.144518966446793</v>
+        <v>71.242898111983521</v>
       </c>
       <c r="F16" s="3">
         <f>AVERAGE('[2]Csr, Winter'!F$2:F$6)</f>
-        <v>18.95637215301775</v>
+        <v>70.542743447209119</v>
       </c>
       <c r="G16" s="3">
         <f>AVERAGE('[2]Csr, Winter'!G$2:G$6)</f>
-        <v>20.145645837902578</v>
+        <v>74.968412439363391</v>
       </c>
       <c r="H16" s="3">
         <f>AVERAGE('[2]Csr, Winter'!H$2:H$6)</f>
-        <v>21.023664300571454</v>
+        <v>78.235800874977286</v>
       </c>
       <c r="I16" s="3">
         <f>AVERAGE('[2]Csr, Winter'!I$2:I$6)</f>
-        <v>9.8951287062683004</v>
+        <v>36.822949036283646</v>
       </c>
       <c r="J16" s="3">
         <f>AVERAGE('[2]Csr, Winter'!J$2:J$6)</f>
-        <v>5.8697160189530511</v>
+        <v>21.843096764011445</v>
       </c>
       <c r="K16" s="3">
         <f>AVERAGE('[2]Csr, Winter'!K$2:K$6)</f>
-        <v>2.8268478017672587</v>
+        <v>10.519607741116712</v>
       </c>
       <c r="L16" s="3">
         <f>AVERAGE('[2]Csr, Winter'!L$2:L$6)</f>
-        <v>3.8256518730572524</v>
+        <v>14.236478183746282</v>
       </c>
       <c r="M16" s="3">
         <f>AVERAGE('[2]Csr, Winter'!M$2:M$6)</f>
-        <v>3.6467962602913695</v>
+        <v>13.570899057973079</v>
       </c>
       <c r="N16" s="3">
         <f>AVERAGE('[2]Csr, Winter'!N$2:N$6)</f>
-        <v>4.506232321633922</v>
+        <v>16.769136415584569</v>
       </c>
       <c r="O16" s="3">
         <f>AVERAGE('[2]Csr, Winter'!O$2:O$6)</f>
-        <v>5.1148059650710795</v>
+        <v>19.03383422016352</v>
       </c>
       <c r="P16" s="3">
         <f>AVERAGE('[2]Csr, Winter'!P$2:P$6)</f>
-        <v>6.0834136342057947</v>
+        <v>22.638334161039172</v>
       </c>
       <c r="Q16" s="3">
         <f>AVERAGE('[2]Csr, Winter'!Q$2:Q$6)</f>
-        <v>6.2854972486295839</v>
+        <v>23.390352134315386</v>
       </c>
       <c r="R16" s="3">
         <f>AVERAGE('[2]Csr, Winter'!R$2:R$6)</f>
-        <v>5.8488108174609357</v>
+        <v>21.765301801258737</v>
       </c>
       <c r="S16" s="3">
         <f>AVERAGE('[2]Csr, Winter'!S$2:S$6)</f>
-        <v>3.6212454584676719</v>
+        <v>13.475816325719766</v>
       </c>
       <c r="T16" s="3">
         <f>AVERAGE('[2]Csr, Winter'!T$2:T$6)</f>
-        <v>4.6897335347313849</v>
+        <v>17.452003310858377</v>
       </c>
       <c r="U16" s="3">
         <f>AVERAGE('[2]Csr, Winter'!U$2:U$6)</f>
-        <v>4.8337471450104079</v>
+        <v>17.987924165377056</v>
       </c>
       <c r="V16" s="3">
         <f>AVERAGE('[2]Csr, Winter'!V$2:V$6)</f>
-        <v>3.1125522221595121</v>
+        <v>11.582805565403776</v>
       </c>
       <c r="W16" s="3">
         <f>AVERAGE('[2]Csr, Winter'!W$2:W$6)</f>
-        <v>3.0777102196726522</v>
+        <v>11.453147294149256</v>
       </c>
       <c r="X16" s="3">
         <f>AVERAGE('[2]Csr, Winter'!X$2:X$6)</f>
-        <v>6.3923460562559544</v>
+        <v>23.787970832829245</v>
       </c>
       <c r="Y16" s="3">
         <f>AVERAGE('[2]Csr, Winter'!Y$2:Y$6)</f>
-        <v>13.047168531246253</v>
+        <v>48.552700642442538</v>
       </c>
     </row>
   </sheetData>
@@ -45084,99 +45084,99 @@
       </c>
       <c r="B2" s="3">
         <f>AVERAGE('[2]Csr, Summer'!B$2:B$6)</f>
-        <v>9.8347359019577425</v>
+        <v>36.598208032775815</v>
       </c>
       <c r="C2" s="3">
         <f>AVERAGE('[2]Csr, Summer'!C$2:C$6)</f>
-        <v>13.987902598391482</v>
+        <v>52.053473966314584</v>
       </c>
       <c r="D2" s="3">
         <f>AVERAGE('[2]Csr, Summer'!D$2:D$6)</f>
-        <v>9.0310470445941693</v>
+        <v>33.607423909171551</v>
       </c>
       <c r="E2" s="3">
         <f>AVERAGE('[2]Csr, Summer'!E$2:E$6)</f>
-        <v>9.251713060344283</v>
+        <v>34.428592960450182</v>
       </c>
       <c r="F2" s="3">
         <f>AVERAGE('[2]Csr, Summer'!F$2:F$6)</f>
-        <v>9.4514738746022822</v>
+        <v>35.171967048976093</v>
       </c>
       <c r="G2" s="3">
         <f>AVERAGE('[2]Csr, Summer'!G$2:G$6)</f>
-        <v>9.3306882659811663</v>
+        <v>34.722485041960418</v>
       </c>
       <c r="H2" s="3">
         <f>AVERAGE('[2]Csr, Summer'!H$2:H$6)</f>
-        <v>12.624418901072351</v>
+        <v>46.979513617887704</v>
       </c>
       <c r="I2" s="3">
         <f>AVERAGE('[2]Csr, Summer'!I$2:I$6)</f>
-        <v>11.416562814861198</v>
+        <v>42.484693547731005</v>
       </c>
       <c r="J2" s="3">
         <f>AVERAGE('[2]Csr, Summer'!J$2:J$6)</f>
-        <v>9.8811919052735568</v>
+        <v>36.771085727781838</v>
       </c>
       <c r="K2" s="3">
         <f>AVERAGE('[2]Csr, Summer'!K$2:K$6)</f>
-        <v>9.3655302684680262</v>
+        <v>34.852143313214945</v>
       </c>
       <c r="L2" s="3">
         <f>AVERAGE('[2]Csr, Summer'!L$2:L$6)</f>
-        <v>9.219193858023214</v>
+        <v>34.30757857394596</v>
       </c>
       <c r="M2" s="3">
         <f>AVERAGE('[2]Csr, Summer'!M$2:M$6)</f>
-        <v>8.9985278422731003</v>
+        <v>33.486409522667337</v>
       </c>
       <c r="N2" s="3">
         <f>AVERAGE('[2]Csr, Summer'!N$2:N$6)</f>
-        <v>8.3156245935306394</v>
+        <v>30.945107406078744</v>
       </c>
       <c r="O2" s="3">
         <f>AVERAGE('[2]Csr, Summer'!O$2:O$6)</f>
-        <v>7.5792969409749933</v>
+        <v>28.204995940233225</v>
       </c>
       <c r="P2" s="3">
         <f>AVERAGE('[2]Csr, Summer'!P$2:P$6)</f>
-        <v>8.2041301855726854</v>
+        <v>30.530200938064279</v>
       </c>
       <c r="Q2" s="3">
         <f>AVERAGE('[2]Csr, Summer'!Q$2:Q$6)</f>
-        <v>9.1797062552047723</v>
+        <v>34.160632533190842</v>
       </c>
       <c r="R2" s="3">
         <f>AVERAGE('[2]Csr, Summer'!R$2:R$6)</f>
-        <v>8.8777422336519827</v>
+        <v>33.036927515651669</v>
       </c>
       <c r="S2" s="3">
         <f>AVERAGE('[2]Csr, Summer'!S$2:S$6)</f>
-        <v>8.3644033970122429</v>
+        <v>31.126628985835072</v>
       </c>
       <c r="T2" s="3">
         <f>AVERAGE('[2]Csr, Summer'!T$2:T$6)</f>
-        <v>7.4190237295354367</v>
+        <v>27.608567892462428</v>
       </c>
       <c r="U2" s="3">
         <f>AVERAGE('[2]Csr, Summer'!U$2:U$6)</f>
-        <v>7.0752493049984153</v>
+        <v>26.329272949417838</v>
       </c>
       <c r="V2" s="3">
         <f>AVERAGE('[2]Csr, Summer'!V$2:V$6)</f>
-        <v>5.2820475770080098</v>
+        <v>19.656193922185214</v>
       </c>
       <c r="W2" s="3">
         <f>AVERAGE('[2]Csr, Summer'!W$2:W$6)</f>
-        <v>5.3796051839712176</v>
+        <v>20.019237081697867</v>
       </c>
       <c r="X2" s="3">
         <f>AVERAGE('[2]Csr, Summer'!X$2:X$6)</f>
-        <v>5.1775215695474284</v>
+        <v>19.267219108421653</v>
       </c>
       <c r="Y2" s="3">
         <f>AVERAGE('[2]Csr, Summer'!Y$2:Y$6)</f>
-        <v>10.801020770926666</v>
+        <v>40.194064088901158</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
@@ -45185,99 +45185,99 @@
       </c>
       <c r="B3" s="3">
         <f>AVERAGE('[2]Csr, Summer'!B$2:B$6)</f>
-        <v>9.8347359019577425</v>
+        <v>36.598208032775815</v>
       </c>
       <c r="C3" s="3">
         <f>AVERAGE('[2]Csr, Summer'!C$2:C$6)</f>
-        <v>13.987902598391482</v>
+        <v>52.053473966314584</v>
       </c>
       <c r="D3" s="3">
         <f>AVERAGE('[2]Csr, Summer'!D$2:D$6)</f>
-        <v>9.0310470445941693</v>
+        <v>33.607423909171551</v>
       </c>
       <c r="E3" s="3">
         <f>AVERAGE('[2]Csr, Summer'!E$2:E$6)</f>
-        <v>9.251713060344283</v>
+        <v>34.428592960450182</v>
       </c>
       <c r="F3" s="3">
         <f>AVERAGE('[2]Csr, Summer'!F$2:F$6)</f>
-        <v>9.4514738746022822</v>
+        <v>35.171967048976093</v>
       </c>
       <c r="G3" s="3">
         <f>AVERAGE('[2]Csr, Summer'!G$2:G$6)</f>
-        <v>9.3306882659811663</v>
+        <v>34.722485041960418</v>
       </c>
       <c r="H3" s="3">
         <f>AVERAGE('[2]Csr, Summer'!H$2:H$6)</f>
-        <v>12.624418901072351</v>
+        <v>46.979513617887704</v>
       </c>
       <c r="I3" s="3">
         <f>AVERAGE('[2]Csr, Summer'!I$2:I$6)</f>
-        <v>11.416562814861198</v>
+        <v>42.484693547731005</v>
       </c>
       <c r="J3" s="3">
         <f>AVERAGE('[2]Csr, Summer'!J$2:J$6)</f>
-        <v>9.8811919052735568</v>
+        <v>36.771085727781838</v>
       </c>
       <c r="K3" s="3">
         <f>AVERAGE('[2]Csr, Summer'!K$2:K$6)</f>
-        <v>9.3655302684680262</v>
+        <v>34.852143313214945</v>
       </c>
       <c r="L3" s="3">
         <f>AVERAGE('[2]Csr, Summer'!L$2:L$6)</f>
-        <v>9.219193858023214</v>
+        <v>34.30757857394596</v>
       </c>
       <c r="M3" s="3">
         <f>AVERAGE('[2]Csr, Summer'!M$2:M$6)</f>
-        <v>8.9985278422731003</v>
+        <v>33.486409522667337</v>
       </c>
       <c r="N3" s="3">
         <f>AVERAGE('[2]Csr, Summer'!N$2:N$6)</f>
-        <v>8.3156245935306394</v>
+        <v>30.945107406078744</v>
       </c>
       <c r="O3" s="3">
         <f>AVERAGE('[2]Csr, Summer'!O$2:O$6)</f>
-        <v>7.5792969409749933</v>
+        <v>28.204995940233225</v>
       </c>
       <c r="P3" s="3">
         <f>AVERAGE('[2]Csr, Summer'!P$2:P$6)</f>
-        <v>8.2041301855726854</v>
+        <v>30.530200938064279</v>
       </c>
       <c r="Q3" s="3">
         <f>AVERAGE('[2]Csr, Summer'!Q$2:Q$6)</f>
-        <v>9.1797062552047723</v>
+        <v>34.160632533190842</v>
       </c>
       <c r="R3" s="3">
         <f>AVERAGE('[2]Csr, Summer'!R$2:R$6)</f>
-        <v>8.8777422336519827</v>
+        <v>33.036927515651669</v>
       </c>
       <c r="S3" s="3">
         <f>AVERAGE('[2]Csr, Summer'!S$2:S$6)</f>
-        <v>8.3644033970122429</v>
+        <v>31.126628985835072</v>
       </c>
       <c r="T3" s="3">
         <f>AVERAGE('[2]Csr, Summer'!T$2:T$6)</f>
-        <v>7.4190237295354367</v>
+        <v>27.608567892462428</v>
       </c>
       <c r="U3" s="3">
         <f>AVERAGE('[2]Csr, Summer'!U$2:U$6)</f>
-        <v>7.0752493049984153</v>
+        <v>26.329272949417838</v>
       </c>
       <c r="V3" s="3">
         <f>AVERAGE('[2]Csr, Summer'!V$2:V$6)</f>
-        <v>5.2820475770080098</v>
+        <v>19.656193922185214</v>
       </c>
       <c r="W3" s="3">
         <f>AVERAGE('[2]Csr, Summer'!W$2:W$6)</f>
-        <v>5.3796051839712176</v>
+        <v>20.019237081697867</v>
       </c>
       <c r="X3" s="3">
         <f>AVERAGE('[2]Csr, Summer'!X$2:X$6)</f>
-        <v>5.1775215695474284</v>
+        <v>19.267219108421653</v>
       </c>
       <c r="Y3" s="3">
         <f>AVERAGE('[2]Csr, Summer'!Y$2:Y$6)</f>
-        <v>10.801020770926666</v>
+        <v>40.194064088901158</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -45286,99 +45286,99 @@
       </c>
       <c r="B4" s="3">
         <f>AVERAGE('[2]Csr, Summer'!B$2:B$6)</f>
-        <v>9.8347359019577425</v>
+        <v>36.598208032775815</v>
       </c>
       <c r="C4" s="3">
         <f>AVERAGE('[2]Csr, Summer'!C$2:C$6)</f>
-        <v>13.987902598391482</v>
+        <v>52.053473966314584</v>
       </c>
       <c r="D4" s="3">
         <f>AVERAGE('[2]Csr, Summer'!D$2:D$6)</f>
-        <v>9.0310470445941693</v>
+        <v>33.607423909171551</v>
       </c>
       <c r="E4" s="3">
         <f>AVERAGE('[2]Csr, Summer'!E$2:E$6)</f>
-        <v>9.251713060344283</v>
+        <v>34.428592960450182</v>
       </c>
       <c r="F4" s="3">
         <f>AVERAGE('[2]Csr, Summer'!F$2:F$6)</f>
-        <v>9.4514738746022822</v>
+        <v>35.171967048976093</v>
       </c>
       <c r="G4" s="3">
         <f>AVERAGE('[2]Csr, Summer'!G$2:G$6)</f>
-        <v>9.3306882659811663</v>
+        <v>34.722485041960418</v>
       </c>
       <c r="H4" s="3">
         <f>AVERAGE('[2]Csr, Summer'!H$2:H$6)</f>
-        <v>12.624418901072351</v>
+        <v>46.979513617887704</v>
       </c>
       <c r="I4" s="3">
         <f>AVERAGE('[2]Csr, Summer'!I$2:I$6)</f>
-        <v>11.416562814861198</v>
+        <v>42.484693547731005</v>
       </c>
       <c r="J4" s="3">
         <f>AVERAGE('[2]Csr, Summer'!J$2:J$6)</f>
-        <v>9.8811919052735568</v>
+        <v>36.771085727781838</v>
       </c>
       <c r="K4" s="3">
         <f>AVERAGE('[2]Csr, Summer'!K$2:K$6)</f>
-        <v>9.3655302684680262</v>
+        <v>34.852143313214945</v>
       </c>
       <c r="L4" s="3">
         <f>AVERAGE('[2]Csr, Summer'!L$2:L$6)</f>
-        <v>9.219193858023214</v>
+        <v>34.30757857394596</v>
       </c>
       <c r="M4" s="3">
         <f>AVERAGE('[2]Csr, Summer'!M$2:M$6)</f>
-        <v>8.9985278422731003</v>
+        <v>33.486409522667337</v>
       </c>
       <c r="N4" s="3">
         <f>AVERAGE('[2]Csr, Summer'!N$2:N$6)</f>
-        <v>8.3156245935306394</v>
+        <v>30.945107406078744</v>
       </c>
       <c r="O4" s="3">
         <f>AVERAGE('[2]Csr, Summer'!O$2:O$6)</f>
-        <v>7.5792969409749933</v>
+        <v>28.204995940233225</v>
       </c>
       <c r="P4" s="3">
         <f>AVERAGE('[2]Csr, Summer'!P$2:P$6)</f>
-        <v>8.2041301855726854</v>
+        <v>30.530200938064279</v>
       </c>
       <c r="Q4" s="3">
         <f>AVERAGE('[2]Csr, Summer'!Q$2:Q$6)</f>
-        <v>9.1797062552047723</v>
+        <v>34.160632533190842</v>
       </c>
       <c r="R4" s="3">
         <f>AVERAGE('[2]Csr, Summer'!R$2:R$6)</f>
-        <v>8.8777422336519827</v>
+        <v>33.036927515651669</v>
       </c>
       <c r="S4" s="3">
         <f>AVERAGE('[2]Csr, Summer'!S$2:S$6)</f>
-        <v>8.3644033970122429</v>
+        <v>31.126628985835072</v>
       </c>
       <c r="T4" s="3">
         <f>AVERAGE('[2]Csr, Summer'!T$2:T$6)</f>
-        <v>7.4190237295354367</v>
+        <v>27.608567892462428</v>
       </c>
       <c r="U4" s="3">
         <f>AVERAGE('[2]Csr, Summer'!U$2:U$6)</f>
-        <v>7.0752493049984153</v>
+        <v>26.329272949417838</v>
       </c>
       <c r="V4" s="3">
         <f>AVERAGE('[2]Csr, Summer'!V$2:V$6)</f>
-        <v>5.2820475770080098</v>
+        <v>19.656193922185214</v>
       </c>
       <c r="W4" s="3">
         <f>AVERAGE('[2]Csr, Summer'!W$2:W$6)</f>
-        <v>5.3796051839712176</v>
+        <v>20.019237081697867</v>
       </c>
       <c r="X4" s="3">
         <f>AVERAGE('[2]Csr, Summer'!X$2:X$6)</f>
-        <v>5.1775215695474284</v>
+        <v>19.267219108421653</v>
       </c>
       <c r="Y4" s="3">
         <f>AVERAGE('[2]Csr, Summer'!Y$2:Y$6)</f>
-        <v>10.801020770926666</v>
+        <v>40.194064088901158</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -45387,99 +45387,99 @@
       </c>
       <c r="B5" s="3">
         <f>AVERAGE('[2]Csr, Summer'!B$2:B$6)</f>
-        <v>9.8347359019577425</v>
+        <v>36.598208032775815</v>
       </c>
       <c r="C5" s="3">
         <f>AVERAGE('[2]Csr, Summer'!C$2:C$6)</f>
-        <v>13.987902598391482</v>
+        <v>52.053473966314584</v>
       </c>
       <c r="D5" s="3">
         <f>AVERAGE('[2]Csr, Summer'!D$2:D$6)</f>
-        <v>9.0310470445941693</v>
+        <v>33.607423909171551</v>
       </c>
       <c r="E5" s="3">
         <f>AVERAGE('[2]Csr, Summer'!E$2:E$6)</f>
-        <v>9.251713060344283</v>
+        <v>34.428592960450182</v>
       </c>
       <c r="F5" s="3">
         <f>AVERAGE('[2]Csr, Summer'!F$2:F$6)</f>
-        <v>9.4514738746022822</v>
+        <v>35.171967048976093</v>
       </c>
       <c r="G5" s="3">
         <f>AVERAGE('[2]Csr, Summer'!G$2:G$6)</f>
-        <v>9.3306882659811663</v>
+        <v>34.722485041960418</v>
       </c>
       <c r="H5" s="3">
         <f>AVERAGE('[2]Csr, Summer'!H$2:H$6)</f>
-        <v>12.624418901072351</v>
+        <v>46.979513617887704</v>
       </c>
       <c r="I5" s="3">
         <f>AVERAGE('[2]Csr, Summer'!I$2:I$6)</f>
-        <v>11.416562814861198</v>
+        <v>42.484693547731005</v>
       </c>
       <c r="J5" s="3">
         <f>AVERAGE('[2]Csr, Summer'!J$2:J$6)</f>
-        <v>9.8811919052735568</v>
+        <v>36.771085727781838</v>
       </c>
       <c r="K5" s="3">
         <f>AVERAGE('[2]Csr, Summer'!K$2:K$6)</f>
-        <v>9.3655302684680262</v>
+        <v>34.852143313214945</v>
       </c>
       <c r="L5" s="3">
         <f>AVERAGE('[2]Csr, Summer'!L$2:L$6)</f>
-        <v>9.219193858023214</v>
+        <v>34.30757857394596</v>
       </c>
       <c r="M5" s="3">
         <f>AVERAGE('[2]Csr, Summer'!M$2:M$6)</f>
-        <v>8.9985278422731003</v>
+        <v>33.486409522667337</v>
       </c>
       <c r="N5" s="3">
         <f>AVERAGE('[2]Csr, Summer'!N$2:N$6)</f>
-        <v>8.3156245935306394</v>
+        <v>30.945107406078744</v>
       </c>
       <c r="O5" s="3">
         <f>AVERAGE('[2]Csr, Summer'!O$2:O$6)</f>
-        <v>7.5792969409749933</v>
+        <v>28.204995940233225</v>
       </c>
       <c r="P5" s="3">
         <f>AVERAGE('[2]Csr, Summer'!P$2:P$6)</f>
-        <v>8.2041301855726854</v>
+        <v>30.530200938064279</v>
       </c>
       <c r="Q5" s="3">
         <f>AVERAGE('[2]Csr, Summer'!Q$2:Q$6)</f>
-        <v>9.1797062552047723</v>
+        <v>34.160632533190842</v>
       </c>
       <c r="R5" s="3">
         <f>AVERAGE('[2]Csr, Summer'!R$2:R$6)</f>
-        <v>8.8777422336519827</v>
+        <v>33.036927515651669</v>
       </c>
       <c r="S5" s="3">
         <f>AVERAGE('[2]Csr, Summer'!S$2:S$6)</f>
-        <v>8.3644033970122429</v>
+        <v>31.126628985835072</v>
       </c>
       <c r="T5" s="3">
         <f>AVERAGE('[2]Csr, Summer'!T$2:T$6)</f>
-        <v>7.4190237295354367</v>
+        <v>27.608567892462428</v>
       </c>
       <c r="U5" s="3">
         <f>AVERAGE('[2]Csr, Summer'!U$2:U$6)</f>
-        <v>7.0752493049984153</v>
+        <v>26.329272949417838</v>
       </c>
       <c r="V5" s="3">
         <f>AVERAGE('[2]Csr, Summer'!V$2:V$6)</f>
-        <v>5.2820475770080098</v>
+        <v>19.656193922185214</v>
       </c>
       <c r="W5" s="3">
         <f>AVERAGE('[2]Csr, Summer'!W$2:W$6)</f>
-        <v>5.3796051839712176</v>
+        <v>20.019237081697867</v>
       </c>
       <c r="X5" s="3">
         <f>AVERAGE('[2]Csr, Summer'!X$2:X$6)</f>
-        <v>5.1775215695474284</v>
+        <v>19.267219108421653</v>
       </c>
       <c r="Y5" s="3">
         <f>AVERAGE('[2]Csr, Summer'!Y$2:Y$6)</f>
-        <v>10.801020770926666</v>
+        <v>40.194064088901158</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
@@ -45488,99 +45488,99 @@
       </c>
       <c r="B6" s="3">
         <f>AVERAGE('[2]Csr, Summer'!B$2:B$6)</f>
-        <v>9.8347359019577425</v>
+        <v>36.598208032775815</v>
       </c>
       <c r="C6" s="3">
         <f>AVERAGE('[2]Csr, Summer'!C$2:C$6)</f>
-        <v>13.987902598391482</v>
+        <v>52.053473966314584</v>
       </c>
       <c r="D6" s="3">
         <f>AVERAGE('[2]Csr, Summer'!D$2:D$6)</f>
-        <v>9.0310470445941693</v>
+        <v>33.607423909171551</v>
       </c>
       <c r="E6" s="3">
         <f>AVERAGE('[2]Csr, Summer'!E$2:E$6)</f>
-        <v>9.251713060344283</v>
+        <v>34.428592960450182</v>
       </c>
       <c r="F6" s="3">
         <f>AVERAGE('[2]Csr, Summer'!F$2:F$6)</f>
-        <v>9.4514738746022822</v>
+        <v>35.171967048976093</v>
       </c>
       <c r="G6" s="3">
         <f>AVERAGE('[2]Csr, Summer'!G$2:G$6)</f>
-        <v>9.3306882659811663</v>
+        <v>34.722485041960418</v>
       </c>
       <c r="H6" s="3">
         <f>AVERAGE('[2]Csr, Summer'!H$2:H$6)</f>
-        <v>12.624418901072351</v>
+        <v>46.979513617887704</v>
       </c>
       <c r="I6" s="3">
         <f>AVERAGE('[2]Csr, Summer'!I$2:I$6)</f>
-        <v>11.416562814861198</v>
+        <v>42.484693547731005</v>
       </c>
       <c r="J6" s="3">
         <f>AVERAGE('[2]Csr, Summer'!J$2:J$6)</f>
-        <v>9.8811919052735568</v>
+        <v>36.771085727781838</v>
       </c>
       <c r="K6" s="3">
         <f>AVERAGE('[2]Csr, Summer'!K$2:K$6)</f>
-        <v>9.3655302684680262</v>
+        <v>34.852143313214945</v>
       </c>
       <c r="L6" s="3">
         <f>AVERAGE('[2]Csr, Summer'!L$2:L$6)</f>
-        <v>9.219193858023214</v>
+        <v>34.30757857394596</v>
       </c>
       <c r="M6" s="3">
         <f>AVERAGE('[2]Csr, Summer'!M$2:M$6)</f>
-        <v>8.9985278422731003</v>
+        <v>33.486409522667337</v>
       </c>
       <c r="N6" s="3">
         <f>AVERAGE('[2]Csr, Summer'!N$2:N$6)</f>
-        <v>8.3156245935306394</v>
+        <v>30.945107406078744</v>
       </c>
       <c r="O6" s="3">
         <f>AVERAGE('[2]Csr, Summer'!O$2:O$6)</f>
-        <v>7.5792969409749933</v>
+        <v>28.204995940233225</v>
       </c>
       <c r="P6" s="3">
         <f>AVERAGE('[2]Csr, Summer'!P$2:P$6)</f>
-        <v>8.2041301855726854</v>
+        <v>30.530200938064279</v>
       </c>
       <c r="Q6" s="3">
         <f>AVERAGE('[2]Csr, Summer'!Q$2:Q$6)</f>
-        <v>9.1797062552047723</v>
+        <v>34.160632533190842</v>
       </c>
       <c r="R6" s="3">
         <f>AVERAGE('[2]Csr, Summer'!R$2:R$6)</f>
-        <v>8.8777422336519827</v>
+        <v>33.036927515651669</v>
       </c>
       <c r="S6" s="3">
         <f>AVERAGE('[2]Csr, Summer'!S$2:S$6)</f>
-        <v>8.3644033970122429</v>
+        <v>31.126628985835072</v>
       </c>
       <c r="T6" s="3">
         <f>AVERAGE('[2]Csr, Summer'!T$2:T$6)</f>
-        <v>7.4190237295354367</v>
+        <v>27.608567892462428</v>
       </c>
       <c r="U6" s="3">
         <f>AVERAGE('[2]Csr, Summer'!U$2:U$6)</f>
-        <v>7.0752493049984153</v>
+        <v>26.329272949417838</v>
       </c>
       <c r="V6" s="3">
         <f>AVERAGE('[2]Csr, Summer'!V$2:V$6)</f>
-        <v>5.2820475770080098</v>
+        <v>19.656193922185214</v>
       </c>
       <c r="W6" s="3">
         <f>AVERAGE('[2]Csr, Summer'!W$2:W$6)</f>
-        <v>5.3796051839712176</v>
+        <v>20.019237081697867</v>
       </c>
       <c r="X6" s="3">
         <f>AVERAGE('[2]Csr, Summer'!X$2:X$6)</f>
-        <v>5.1775215695474284</v>
+        <v>19.267219108421653</v>
       </c>
       <c r="Y6" s="3">
         <f>AVERAGE('[2]Csr, Summer'!Y$2:Y$6)</f>
-        <v>10.801020770926666</v>
+        <v>40.194064088901158</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
@@ -45589,99 +45589,99 @@
       </c>
       <c r="B7" s="3">
         <f>AVERAGE('[2]Csr, Summer'!B$2:B$6)</f>
-        <v>9.8347359019577425</v>
+        <v>36.598208032775815</v>
       </c>
       <c r="C7" s="3">
         <f>AVERAGE('[2]Csr, Summer'!C$2:C$6)</f>
-        <v>13.987902598391482</v>
+        <v>52.053473966314584</v>
       </c>
       <c r="D7" s="3">
         <f>AVERAGE('[2]Csr, Summer'!D$2:D$6)</f>
-        <v>9.0310470445941693</v>
+        <v>33.607423909171551</v>
       </c>
       <c r="E7" s="3">
         <f>AVERAGE('[2]Csr, Summer'!E$2:E$6)</f>
-        <v>9.251713060344283</v>
+        <v>34.428592960450182</v>
       </c>
       <c r="F7" s="3">
         <f>AVERAGE('[2]Csr, Summer'!F$2:F$6)</f>
-        <v>9.4514738746022822</v>
+        <v>35.171967048976093</v>
       </c>
       <c r="G7" s="3">
         <f>AVERAGE('[2]Csr, Summer'!G$2:G$6)</f>
-        <v>9.3306882659811663</v>
+        <v>34.722485041960418</v>
       </c>
       <c r="H7" s="3">
         <f>AVERAGE('[2]Csr, Summer'!H$2:H$6)</f>
-        <v>12.624418901072351</v>
+        <v>46.979513617887704</v>
       </c>
       <c r="I7" s="3">
         <f>AVERAGE('[2]Csr, Summer'!I$2:I$6)</f>
-        <v>11.416562814861198</v>
+        <v>42.484693547731005</v>
       </c>
       <c r="J7" s="3">
         <f>AVERAGE('[2]Csr, Summer'!J$2:J$6)</f>
-        <v>9.8811919052735568</v>
+        <v>36.771085727781838</v>
       </c>
       <c r="K7" s="3">
         <f>AVERAGE('[2]Csr, Summer'!K$2:K$6)</f>
-        <v>9.3655302684680262</v>
+        <v>34.852143313214945</v>
       </c>
       <c r="L7" s="3">
         <f>AVERAGE('[2]Csr, Summer'!L$2:L$6)</f>
-        <v>9.219193858023214</v>
+        <v>34.30757857394596</v>
       </c>
       <c r="M7" s="3">
         <f>AVERAGE('[2]Csr, Summer'!M$2:M$6)</f>
-        <v>8.9985278422731003</v>
+        <v>33.486409522667337</v>
       </c>
       <c r="N7" s="3">
         <f>AVERAGE('[2]Csr, Summer'!N$2:N$6)</f>
-        <v>8.3156245935306394</v>
+        <v>30.945107406078744</v>
       </c>
       <c r="O7" s="3">
         <f>AVERAGE('[2]Csr, Summer'!O$2:O$6)</f>
-        <v>7.5792969409749933</v>
+        <v>28.204995940233225</v>
       </c>
       <c r="P7" s="3">
         <f>AVERAGE('[2]Csr, Summer'!P$2:P$6)</f>
-        <v>8.2041301855726854</v>
+        <v>30.530200938064279</v>
       </c>
       <c r="Q7" s="3">
         <f>AVERAGE('[2]Csr, Summer'!Q$2:Q$6)</f>
-        <v>9.1797062552047723</v>
+        <v>34.160632533190842</v>
       </c>
       <c r="R7" s="3">
         <f>AVERAGE('[2]Csr, Summer'!R$2:R$6)</f>
-        <v>8.8777422336519827</v>
+        <v>33.036927515651669</v>
       </c>
       <c r="S7" s="3">
         <f>AVERAGE('[2]Csr, Summer'!S$2:S$6)</f>
-        <v>8.3644033970122429</v>
+        <v>31.126628985835072</v>
       </c>
       <c r="T7" s="3">
         <f>AVERAGE('[2]Csr, Summer'!T$2:T$6)</f>
-        <v>7.4190237295354367</v>
+        <v>27.608567892462428</v>
       </c>
       <c r="U7" s="3">
         <f>AVERAGE('[2]Csr, Summer'!U$2:U$6)</f>
-        <v>7.0752493049984153</v>
+        <v>26.329272949417838</v>
       </c>
       <c r="V7" s="3">
         <f>AVERAGE('[2]Csr, Summer'!V$2:V$6)</f>
-        <v>5.2820475770080098</v>
+        <v>19.656193922185214</v>
       </c>
       <c r="W7" s="3">
         <f>AVERAGE('[2]Csr, Summer'!W$2:W$6)</f>
-        <v>5.3796051839712176</v>
+        <v>20.019237081697867</v>
       </c>
       <c r="X7" s="3">
         <f>AVERAGE('[2]Csr, Summer'!X$2:X$6)</f>
-        <v>5.1775215695474284</v>
+        <v>19.267219108421653</v>
       </c>
       <c r="Y7" s="3">
         <f>AVERAGE('[2]Csr, Summer'!Y$2:Y$6)</f>
-        <v>10.801020770926666</v>
+        <v>40.194064088901158</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -45690,99 +45690,99 @@
       </c>
       <c r="B8" s="3">
         <f>AVERAGE('[2]Csr, Summer'!B$2:B$6)</f>
-        <v>9.8347359019577425</v>
+        <v>36.598208032775815</v>
       </c>
       <c r="C8" s="3">
         <f>AVERAGE('[2]Csr, Summer'!C$2:C$6)</f>
-        <v>13.987902598391482</v>
+        <v>52.053473966314584</v>
       </c>
       <c r="D8" s="3">
         <f>AVERAGE('[2]Csr, Summer'!D$2:D$6)</f>
-        <v>9.0310470445941693</v>
+        <v>33.607423909171551</v>
       </c>
       <c r="E8" s="3">
         <f>AVERAGE('[2]Csr, Summer'!E$2:E$6)</f>
-        <v>9.251713060344283</v>
+        <v>34.428592960450182</v>
       </c>
       <c r="F8" s="3">
         <f>AVERAGE('[2]Csr, Summer'!F$2:F$6)</f>
-        <v>9.4514738746022822</v>
+        <v>35.171967048976093</v>
       </c>
       <c r="G8" s="3">
         <f>AVERAGE('[2]Csr, Summer'!G$2:G$6)</f>
-        <v>9.3306882659811663</v>
+        <v>34.722485041960418</v>
       </c>
       <c r="H8" s="3">
         <f>AVERAGE('[2]Csr, Summer'!H$2:H$6)</f>
-        <v>12.624418901072351</v>
+        <v>46.979513617887704</v>
       </c>
       <c r="I8" s="3">
         <f>AVERAGE('[2]Csr, Summer'!I$2:I$6)</f>
-        <v>11.416562814861198</v>
+        <v>42.484693547731005</v>
       </c>
       <c r="J8" s="3">
         <f>AVERAGE('[2]Csr, Summer'!J$2:J$6)</f>
-        <v>9.8811919052735568</v>
+        <v>36.771085727781838</v>
       </c>
       <c r="K8" s="3">
         <f>AVERAGE('[2]Csr, Summer'!K$2:K$6)</f>
-        <v>9.3655302684680262</v>
+        <v>34.852143313214945</v>
       </c>
       <c r="L8" s="3">
         <f>AVERAGE('[2]Csr, Summer'!L$2:L$6)</f>
-        <v>9.219193858023214</v>
+        <v>34.30757857394596</v>
       </c>
       <c r="M8" s="3">
         <f>AVERAGE('[2]Csr, Summer'!M$2:M$6)</f>
-        <v>8.9985278422731003</v>
+        <v>33.486409522667337</v>
       </c>
       <c r="N8" s="3">
         <f>AVERAGE('[2]Csr, Summer'!N$2:N$6)</f>
-        <v>8.3156245935306394</v>
+        <v>30.945107406078744</v>
       </c>
       <c r="O8" s="3">
         <f>AVERAGE('[2]Csr, Summer'!O$2:O$6)</f>
-        <v>7.5792969409749933</v>
+        <v>28.204995940233225</v>
       </c>
       <c r="P8" s="3">
         <f>AVERAGE('[2]Csr, Summer'!P$2:P$6)</f>
-        <v>8.2041301855726854</v>
+        <v>30.530200938064279</v>
       </c>
       <c r="Q8" s="3">
         <f>AVERAGE('[2]Csr, Summer'!Q$2:Q$6)</f>
-        <v>9.1797062552047723</v>
+        <v>34.160632533190842</v>
       </c>
       <c r="R8" s="3">
         <f>AVERAGE('[2]Csr, Summer'!R$2:R$6)</f>
-        <v>8.8777422336519827</v>
+        <v>33.036927515651669</v>
       </c>
       <c r="S8" s="3">
         <f>AVERAGE('[2]Csr, Summer'!S$2:S$6)</f>
-        <v>8.3644033970122429</v>
+        <v>31.126628985835072</v>
       </c>
       <c r="T8" s="3">
         <f>AVERAGE('[2]Csr, Summer'!T$2:T$6)</f>
-        <v>7.4190237295354367</v>
+        <v>27.608567892462428</v>
       </c>
       <c r="U8" s="3">
         <f>AVERAGE('[2]Csr, Summer'!U$2:U$6)</f>
-        <v>7.0752493049984153</v>
+        <v>26.329272949417838</v>
       </c>
       <c r="V8" s="3">
         <f>AVERAGE('[2]Csr, Summer'!V$2:V$6)</f>
-        <v>5.2820475770080098</v>
+        <v>19.656193922185214</v>
       </c>
       <c r="W8" s="3">
         <f>AVERAGE('[2]Csr, Summer'!W$2:W$6)</f>
-        <v>5.3796051839712176</v>
+        <v>20.019237081697867</v>
       </c>
       <c r="X8" s="3">
         <f>AVERAGE('[2]Csr, Summer'!X$2:X$6)</f>
-        <v>5.1775215695474284</v>
+        <v>19.267219108421653</v>
       </c>
       <c r="Y8" s="3">
         <f>AVERAGE('[2]Csr, Summer'!Y$2:Y$6)</f>
-        <v>10.801020770926666</v>
+        <v>40.194064088901158</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
@@ -45791,99 +45791,99 @@
       </c>
       <c r="B9" s="3">
         <f>AVERAGE('[2]Csr, Summer'!B$2:B$6)</f>
-        <v>9.8347359019577425</v>
+        <v>36.598208032775815</v>
       </c>
       <c r="C9" s="3">
         <f>AVERAGE('[2]Csr, Summer'!C$2:C$6)</f>
-        <v>13.987902598391482</v>
+        <v>52.053473966314584</v>
       </c>
       <c r="D9" s="3">
         <f>AVERAGE('[2]Csr, Summer'!D$2:D$6)</f>
-        <v>9.0310470445941693</v>
+        <v>33.607423909171551</v>
       </c>
       <c r="E9" s="3">
         <f>AVERAGE('[2]Csr, Summer'!E$2:E$6)</f>
-        <v>9.251713060344283</v>
+        <v>34.428592960450182</v>
       </c>
       <c r="F9" s="3">
         <f>AVERAGE('[2]Csr, Summer'!F$2:F$6)</f>
-        <v>9.4514738746022822</v>
+        <v>35.171967048976093</v>
       </c>
       <c r="G9" s="3">
         <f>AVERAGE('[2]Csr, Summer'!G$2:G$6)</f>
-        <v>9.3306882659811663</v>
+        <v>34.722485041960418</v>
       </c>
       <c r="H9" s="3">
         <f>AVERAGE('[2]Csr, Summer'!H$2:H$6)</f>
-        <v>12.624418901072351</v>
+        <v>46.979513617887704</v>
       </c>
       <c r="I9" s="3">
         <f>AVERAGE('[2]Csr, Summer'!I$2:I$6)</f>
-        <v>11.416562814861198</v>
+        <v>42.484693547731005</v>
       </c>
       <c r="J9" s="3">
         <f>AVERAGE('[2]Csr, Summer'!J$2:J$6)</f>
-        <v>9.8811919052735568</v>
+        <v>36.771085727781838</v>
       </c>
       <c r="K9" s="3">
         <f>AVERAGE('[2]Csr, Summer'!K$2:K$6)</f>
-        <v>9.3655302684680262</v>
+        <v>34.852143313214945</v>
       </c>
       <c r="L9" s="3">
         <f>AVERAGE('[2]Csr, Summer'!L$2:L$6)</f>
-        <v>9.219193858023214</v>
+        <v>34.30757857394596</v>
       </c>
       <c r="M9" s="3">
         <f>AVERAGE('[2]Csr, Summer'!M$2:M$6)</f>
-        <v>8.9985278422731003</v>
+        <v>33.486409522667337</v>
       </c>
       <c r="N9" s="3">
         <f>AVERAGE('[2]Csr, Summer'!N$2:N$6)</f>
-        <v>8.3156245935306394</v>
+        <v>30.945107406078744</v>
       </c>
       <c r="O9" s="3">
         <f>AVERAGE('[2]Csr, Summer'!O$2:O$6)</f>
-        <v>7.5792969409749933</v>
+        <v>28.204995940233225</v>
       </c>
       <c r="P9" s="3">
         <f>AVERAGE('[2]Csr, Summer'!P$2:P$6)</f>
-        <v>8.2041301855726854</v>
+        <v>30.530200938064279</v>
       </c>
       <c r="Q9" s="3">
         <f>AVERAGE('[2]Csr, Summer'!Q$2:Q$6)</f>
-        <v>9.1797062552047723</v>
+        <v>34.160632533190842</v>
       </c>
       <c r="R9" s="3">
         <f>AVERAGE('[2]Csr, Summer'!R$2:R$6)</f>
-        <v>8.8777422336519827</v>
+        <v>33.036927515651669</v>
       </c>
       <c r="S9" s="3">
         <f>AVERAGE('[2]Csr, Summer'!S$2:S$6)</f>
-        <v>8.3644033970122429</v>
+        <v>31.126628985835072</v>
       </c>
       <c r="T9" s="3">
         <f>AVERAGE('[2]Csr, Summer'!T$2:T$6)</f>
-        <v>7.4190237295354367</v>
+        <v>27.608567892462428</v>
       </c>
       <c r="U9" s="3">
         <f>AVERAGE('[2]Csr, Summer'!U$2:U$6)</f>
-        <v>7.0752493049984153</v>
+        <v>26.329272949417838</v>
       </c>
       <c r="V9" s="3">
         <f>AVERAGE('[2]Csr, Summer'!V$2:V$6)</f>
-        <v>5.2820475770080098</v>
+        <v>19.656193922185214</v>
       </c>
       <c r="W9" s="3">
         <f>AVERAGE('[2]Csr, Summer'!W$2:W$6)</f>
-        <v>5.3796051839712176</v>
+        <v>20.019237081697867</v>
       </c>
       <c r="X9" s="3">
         <f>AVERAGE('[2]Csr, Summer'!X$2:X$6)</f>
-        <v>5.1775215695474284</v>
+        <v>19.267219108421653</v>
       </c>
       <c r="Y9" s="3">
         <f>AVERAGE('[2]Csr, Summer'!Y$2:Y$6)</f>
-        <v>10.801020770926666</v>
+        <v>40.194064088901158</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -45892,99 +45892,99 @@
       </c>
       <c r="B10" s="3">
         <f>AVERAGE('[2]Csr, Summer'!B$2:B$6)</f>
-        <v>9.8347359019577425</v>
+        <v>36.598208032775815</v>
       </c>
       <c r="C10" s="3">
         <f>AVERAGE('[2]Csr, Summer'!C$2:C$6)</f>
-        <v>13.987902598391482</v>
+        <v>52.053473966314584</v>
       </c>
       <c r="D10" s="3">
         <f>AVERAGE('[2]Csr, Summer'!D$2:D$6)</f>
-        <v>9.0310470445941693</v>
+        <v>33.607423909171551</v>
       </c>
       <c r="E10" s="3">
         <f>AVERAGE('[2]Csr, Summer'!E$2:E$6)</f>
-        <v>9.251713060344283</v>
+        <v>34.428592960450182</v>
       </c>
       <c r="F10" s="3">
         <f>AVERAGE('[2]Csr, Summer'!F$2:F$6)</f>
-        <v>9.4514738746022822</v>
+        <v>35.171967048976093</v>
       </c>
       <c r="G10" s="3">
         <f>AVERAGE('[2]Csr, Summer'!G$2:G$6)</f>
-        <v>9.3306882659811663</v>
+        <v>34.722485041960418</v>
       </c>
       <c r="H10" s="3">
         <f>AVERAGE('[2]Csr, Summer'!H$2:H$6)</f>
-        <v>12.624418901072351</v>
+        <v>46.979513617887704</v>
       </c>
       <c r="I10" s="3">
         <f>AVERAGE('[2]Csr, Summer'!I$2:I$6)</f>
-        <v>11.416562814861198</v>
+        <v>42.484693547731005</v>
       </c>
       <c r="J10" s="3">
         <f>AVERAGE('[2]Csr, Summer'!J$2:J$6)</f>
-        <v>9.8811919052735568</v>
+        <v>36.771085727781838</v>
       </c>
       <c r="K10" s="3">
         <f>AVERAGE('[2]Csr, Summer'!K$2:K$6)</f>
-        <v>9.3655302684680262</v>
+        <v>34.852143313214945</v>
       </c>
       <c r="L10" s="3">
         <f>AVERAGE('[2]Csr, Summer'!L$2:L$6)</f>
-        <v>9.219193858023214</v>
+        <v>34.30757857394596</v>
       </c>
       <c r="M10" s="3">
         <f>AVERAGE('[2]Csr, Summer'!M$2:M$6)</f>
-        <v>8.9985278422731003</v>
+        <v>33.486409522667337</v>
       </c>
       <c r="N10" s="3">
         <f>AVERAGE('[2]Csr, Summer'!N$2:N$6)</f>
-        <v>8.3156245935306394</v>
+        <v>30.945107406078744</v>
       </c>
       <c r="O10" s="3">
         <f>AVERAGE('[2]Csr, Summer'!O$2:O$6)</f>
-        <v>7.5792969409749933</v>
+        <v>28.204995940233225</v>
       </c>
       <c r="P10" s="3">
         <f>AVERAGE('[2]Csr, Summer'!P$2:P$6)</f>
-        <v>8.2041301855726854</v>
+        <v>30.530200938064279</v>
       </c>
       <c r="Q10" s="3">
         <f>AVERAGE('[2]Csr, Summer'!Q$2:Q$6)</f>
-        <v>9.1797062552047723</v>
+        <v>34.160632533190842</v>
       </c>
       <c r="R10" s="3">
         <f>AVERAGE('[2]Csr, Summer'!R$2:R$6)</f>
-        <v>8.8777422336519827</v>
+        <v>33.036927515651669</v>
       </c>
       <c r="S10" s="3">
         <f>AVERAGE('[2]Csr, Summer'!S$2:S$6)</f>
-        <v>8.3644033970122429</v>
+        <v>31.126628985835072</v>
       </c>
       <c r="T10" s="3">
         <f>AVERAGE('[2]Csr, Summer'!T$2:T$6)</f>
-        <v>7.4190237295354367</v>
+        <v>27.608567892462428</v>
       </c>
       <c r="U10" s="3">
         <f>AVERAGE('[2]Csr, Summer'!U$2:U$6)</f>
-        <v>7.0752493049984153</v>
+        <v>26.329272949417838</v>
       </c>
       <c r="V10" s="3">
         <f>AVERAGE('[2]Csr, Summer'!V$2:V$6)</f>
-        <v>5.2820475770080098</v>
+        <v>19.656193922185214</v>
       </c>
       <c r="W10" s="3">
         <f>AVERAGE('[2]Csr, Summer'!W$2:W$6)</f>
-        <v>5.3796051839712176</v>
+        <v>20.019237081697867</v>
       </c>
       <c r="X10" s="3">
         <f>AVERAGE('[2]Csr, Summer'!X$2:X$6)</f>
-        <v>5.1775215695474284</v>
+        <v>19.267219108421653</v>
       </c>
       <c r="Y10" s="3">
         <f>AVERAGE('[2]Csr, Summer'!Y$2:Y$6)</f>
-        <v>10.801020770926666</v>
+        <v>40.194064088901158</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
@@ -45993,99 +45993,99 @@
       </c>
       <c r="B11" s="3">
         <f>AVERAGE('[2]Csr, Summer'!B$2:B$6)</f>
-        <v>9.8347359019577425</v>
+        <v>36.598208032775815</v>
       </c>
       <c r="C11" s="3">
         <f>AVERAGE('[2]Csr, Summer'!C$2:C$6)</f>
-        <v>13.987902598391482</v>
+        <v>52.053473966314584</v>
       </c>
       <c r="D11" s="3">
         <f>AVERAGE('[2]Csr, Summer'!D$2:D$6)</f>
-        <v>9.0310470445941693</v>
+        <v>33.607423909171551</v>
       </c>
       <c r="E11" s="3">
         <f>AVERAGE('[2]Csr, Summer'!E$2:E$6)</f>
-        <v>9.251713060344283</v>
+        <v>34.428592960450182</v>
       </c>
       <c r="F11" s="3">
         <f>AVERAGE('[2]Csr, Summer'!F$2:F$6)</f>
-        <v>9.4514738746022822</v>
+        <v>35.171967048976093</v>
       </c>
       <c r="G11" s="3">
         <f>AVERAGE('[2]Csr, Summer'!G$2:G$6)</f>
-        <v>9.3306882659811663</v>
+        <v>34.722485041960418</v>
       </c>
       <c r="H11" s="3">
         <f>AVERAGE('[2]Csr, Summer'!H$2:H$6)</f>
-        <v>12.624418901072351</v>
+        <v>46.979513617887704</v>
       </c>
       <c r="I11" s="3">
         <f>AVERAGE('[2]Csr, Summer'!I$2:I$6)</f>
-        <v>11.416562814861198</v>
+        <v>42.484693547731005</v>
       </c>
       <c r="J11" s="3">
         <f>AVERAGE('[2]Csr, Summer'!J$2:J$6)</f>
-        <v>9.8811919052735568</v>
+        <v>36.771085727781838</v>
       </c>
       <c r="K11" s="3">
         <f>AVERAGE('[2]Csr, Summer'!K$2:K$6)</f>
-        <v>9.3655302684680262</v>
+        <v>34.852143313214945</v>
       </c>
       <c r="L11" s="3">
         <f>AVERAGE('[2]Csr, Summer'!L$2:L$6)</f>
-        <v>9.219193858023214</v>
+        <v>34.30757857394596</v>
       </c>
       <c r="M11" s="3">
         <f>AVERAGE('[2]Csr, Summer'!M$2:M$6)</f>
-        <v>8.9985278422731003</v>
+        <v>33.486409522667337</v>
       </c>
       <c r="N11" s="3">
         <f>AVERAGE('[2]Csr, Summer'!N$2:N$6)</f>
-        <v>8.3156245935306394</v>
+        <v>30.945107406078744</v>
       </c>
       <c r="O11" s="3">
         <f>AVERAGE('[2]Csr, Summer'!O$2:O$6)</f>
-        <v>7.5792969409749933</v>
+        <v>28.204995940233225</v>
       </c>
       <c r="P11" s="3">
         <f>AVERAGE('[2]Csr, Summer'!P$2:P$6)</f>
-        <v>8.2041301855726854</v>
+        <v>30.530200938064279</v>
       </c>
       <c r="Q11" s="3">
         <f>AVERAGE('[2]Csr, Summer'!Q$2:Q$6)</f>
-        <v>9.1797062552047723</v>
+        <v>34.160632533190842</v>
       </c>
       <c r="R11" s="3">
         <f>AVERAGE('[2]Csr, Summer'!R$2:R$6)</f>
-        <v>8.8777422336519827</v>
+        <v>33.036927515651669</v>
       </c>
       <c r="S11" s="3">
         <f>AVERAGE('[2]Csr, Summer'!S$2:S$6)</f>
-        <v>8.3644033970122429</v>
+        <v>31.126628985835072</v>
       </c>
       <c r="T11" s="3">
         <f>AVERAGE('[2]Csr, Summer'!T$2:T$6)</f>
-        <v>7.4190237295354367</v>
+        <v>27.608567892462428</v>
       </c>
       <c r="U11" s="3">
         <f>AVERAGE('[2]Csr, Summer'!U$2:U$6)</f>
-        <v>7.0752493049984153</v>
+        <v>26.329272949417838</v>
       </c>
       <c r="V11" s="3">
         <f>AVERAGE('[2]Csr, Summer'!V$2:V$6)</f>
-        <v>5.2820475770080098</v>
+        <v>19.656193922185214</v>
       </c>
       <c r="W11" s="3">
         <f>AVERAGE('[2]Csr, Summer'!W$2:W$6)</f>
-        <v>5.3796051839712176</v>
+        <v>20.019237081697867</v>
       </c>
       <c r="X11" s="3">
         <f>AVERAGE('[2]Csr, Summer'!X$2:X$6)</f>
-        <v>5.1775215695474284</v>
+        <v>19.267219108421653</v>
       </c>
       <c r="Y11" s="3">
         <f>AVERAGE('[2]Csr, Summer'!Y$2:Y$6)</f>
-        <v>10.801020770926666</v>
+        <v>40.194064088901158</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
@@ -46094,99 +46094,99 @@
       </c>
       <c r="B12" s="3">
         <f>AVERAGE('[2]Csr, Summer'!B$2:B$6)</f>
-        <v>9.8347359019577425</v>
+        <v>36.598208032775815</v>
       </c>
       <c r="C12" s="3">
         <f>AVERAGE('[2]Csr, Summer'!C$2:C$6)</f>
-        <v>13.987902598391482</v>
+        <v>52.053473966314584</v>
       </c>
       <c r="D12" s="3">
         <f>AVERAGE('[2]Csr, Summer'!D$2:D$6)</f>
-        <v>9.0310470445941693</v>
+        <v>33.607423909171551</v>
       </c>
       <c r="E12" s="3">
         <f>AVERAGE('[2]Csr, Summer'!E$2:E$6)</f>
-        <v>9.251713060344283</v>
+        <v>34.428592960450182</v>
       </c>
       <c r="F12" s="3">
         <f>AVERAGE('[2]Csr, Summer'!F$2:F$6)</f>
-        <v>9.4514738746022822</v>
+        <v>35.171967048976093</v>
       </c>
       <c r="G12" s="3">
         <f>AVERAGE('[2]Csr, Summer'!G$2:G$6)</f>
-        <v>9.3306882659811663</v>
+        <v>34.722485041960418</v>
       </c>
       <c r="H12" s="3">
         <f>AVERAGE('[2]Csr, Summer'!H$2:H$6)</f>
-        <v>12.624418901072351</v>
+        <v>46.979513617887704</v>
       </c>
       <c r="I12" s="3">
         <f>AVERAGE('[2]Csr, Summer'!I$2:I$6)</f>
-        <v>11.416562814861198</v>
+        <v>42.484693547731005</v>
       </c>
       <c r="J12" s="3">
         <f>AVERAGE('[2]Csr, Summer'!J$2:J$6)</f>
-        <v>9.8811919052735568</v>
+        <v>36.771085727781838</v>
       </c>
       <c r="K12" s="3">
         <f>AVERAGE('[2]Csr, Summer'!K$2:K$6)</f>
-        <v>9.3655302684680262</v>
+        <v>34.852143313214945</v>
       </c>
       <c r="L12" s="3">
         <f>AVERAGE('[2]Csr, Summer'!L$2:L$6)</f>
-        <v>9.219193858023214</v>
+        <v>34.30757857394596</v>
       </c>
       <c r="M12" s="3">
         <f>AVERAGE('[2]Csr, Summer'!M$2:M$6)</f>
-        <v>8.9985278422731003</v>
+        <v>33.486409522667337</v>
       </c>
       <c r="N12" s="3">
         <f>AVERAGE('[2]Csr, Summer'!N$2:N$6)</f>
-        <v>8.3156245935306394</v>
+        <v>30.945107406078744</v>
       </c>
       <c r="O12" s="3">
         <f>AVERAGE('[2]Csr, Summer'!O$2:O$6)</f>
-        <v>7.5792969409749933</v>
+        <v>28.204995940233225</v>
       </c>
       <c r="P12" s="3">
         <f>AVERAGE('[2]Csr, Summer'!P$2:P$6)</f>
-        <v>8.2041301855726854</v>
+        <v>30.530200938064279</v>
       </c>
       <c r="Q12" s="3">
         <f>AVERAGE('[2]Csr, Summer'!Q$2:Q$6)</f>
-        <v>9.1797062552047723</v>
+        <v>34.160632533190842</v>
       </c>
       <c r="R12" s="3">
         <f>AVERAGE('[2]Csr, Summer'!R$2:R$6)</f>
-        <v>8.8777422336519827</v>
+        <v>33.036927515651669</v>
       </c>
       <c r="S12" s="3">
         <f>AVERAGE('[2]Csr, Summer'!S$2:S$6)</f>
-        <v>8.3644033970122429</v>
+        <v>31.126628985835072</v>
       </c>
       <c r="T12" s="3">
         <f>AVERAGE('[2]Csr, Summer'!T$2:T$6)</f>
-        <v>7.4190237295354367</v>
+        <v>27.608567892462428</v>
       </c>
       <c r="U12" s="3">
         <f>AVERAGE('[2]Csr, Summer'!U$2:U$6)</f>
-        <v>7.0752493049984153</v>
+        <v>26.329272949417838</v>
       </c>
       <c r="V12" s="3">
         <f>AVERAGE('[2]Csr, Summer'!V$2:V$6)</f>
-        <v>5.2820475770080098</v>
+        <v>19.656193922185214</v>
       </c>
       <c r="W12" s="3">
         <f>AVERAGE('[2]Csr, Summer'!W$2:W$6)</f>
-        <v>5.3796051839712176</v>
+        <v>20.019237081697867</v>
       </c>
       <c r="X12" s="3">
         <f>AVERAGE('[2]Csr, Summer'!X$2:X$6)</f>
-        <v>5.1775215695474284</v>
+        <v>19.267219108421653</v>
       </c>
       <c r="Y12" s="3">
         <f>AVERAGE('[2]Csr, Summer'!Y$2:Y$6)</f>
-        <v>10.801020770926666</v>
+        <v>40.194064088901158</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
@@ -46195,99 +46195,99 @@
       </c>
       <c r="B13" s="3">
         <f>AVERAGE('[2]Csr, Summer'!B$2:B$6)</f>
-        <v>9.8347359019577425</v>
+        <v>36.598208032775815</v>
       </c>
       <c r="C13" s="3">
         <f>AVERAGE('[2]Csr, Summer'!C$2:C$6)</f>
-        <v>13.987902598391482</v>
+        <v>52.053473966314584</v>
       </c>
       <c r="D13" s="3">
         <f>AVERAGE('[2]Csr, Summer'!D$2:D$6)</f>
-        <v>9.0310470445941693</v>
+        <v>33.607423909171551</v>
       </c>
       <c r="E13" s="3">
         <f>AVERAGE('[2]Csr, Summer'!E$2:E$6)</f>
-        <v>9.251713060344283</v>
+        <v>34.428592960450182</v>
       </c>
       <c r="F13" s="3">
         <f>AVERAGE('[2]Csr, Summer'!F$2:F$6)</f>
-        <v>9.4514738746022822</v>
+        <v>35.171967048976093</v>
       </c>
       <c r="G13" s="3">
         <f>AVERAGE('[2]Csr, Summer'!G$2:G$6)</f>
-        <v>9.3306882659811663</v>
+        <v>34.722485041960418</v>
       </c>
       <c r="H13" s="3">
         <f>AVERAGE('[2]Csr, Summer'!H$2:H$6)</f>
-        <v>12.624418901072351</v>
+        <v>46.979513617887704</v>
       </c>
       <c r="I13" s="3">
         <f>AVERAGE('[2]Csr, Summer'!I$2:I$6)</f>
-        <v>11.416562814861198</v>
+        <v>42.484693547731005</v>
       </c>
       <c r="J13" s="3">
         <f>AVERAGE('[2]Csr, Summer'!J$2:J$6)</f>
-        <v>9.8811919052735568</v>
+        <v>36.771085727781838</v>
       </c>
       <c r="K13" s="3">
         <f>AVERAGE('[2]Csr, Summer'!K$2:K$6)</f>
-        <v>9.3655302684680262</v>
+        <v>34.852143313214945</v>
       </c>
       <c r="L13" s="3">
         <f>AVERAGE('[2]Csr, Summer'!L$2:L$6)</f>
-        <v>9.219193858023214</v>
+        <v>34.30757857394596</v>
       </c>
       <c r="M13" s="3">
         <f>AVERAGE('[2]Csr, Summer'!M$2:M$6)</f>
-        <v>8.9985278422731003</v>
+        <v>33.486409522667337</v>
       </c>
       <c r="N13" s="3">
         <f>AVERAGE('[2]Csr, Summer'!N$2:N$6)</f>
-        <v>8.3156245935306394</v>
+        <v>30.945107406078744</v>
       </c>
       <c r="O13" s="3">
         <f>AVERAGE('[2]Csr, Summer'!O$2:O$6)</f>
-        <v>7.5792969409749933</v>
+        <v>28.204995940233225</v>
       </c>
       <c r="P13" s="3">
         <f>AVERAGE('[2]Csr, Summer'!P$2:P$6)</f>
-        <v>8.2041301855726854</v>
+        <v>30.530200938064279</v>
       </c>
       <c r="Q13" s="3">
         <f>AVERAGE('[2]Csr, Summer'!Q$2:Q$6)</f>
-        <v>9.1797062552047723</v>
+        <v>34.160632533190842</v>
       </c>
       <c r="R13" s="3">
         <f>AVERAGE('[2]Csr, Summer'!R$2:R$6)</f>
-        <v>8.8777422336519827</v>
+        <v>33.036927515651669</v>
       </c>
       <c r="S13" s="3">
         <f>AVERAGE('[2]Csr, Summer'!S$2:S$6)</f>
-        <v>8.3644033970122429</v>
+        <v>31.126628985835072</v>
       </c>
       <c r="T13" s="3">
         <f>AVERAGE('[2]Csr, Summer'!T$2:T$6)</f>
-        <v>7.4190237295354367</v>
+        <v>27.608567892462428</v>
       </c>
       <c r="U13" s="3">
         <f>AVERAGE('[2]Csr, Summer'!U$2:U$6)</f>
-        <v>7.0752493049984153</v>
+        <v>26.329272949417838</v>
       </c>
       <c r="V13" s="3">
         <f>AVERAGE('[2]Csr, Summer'!V$2:V$6)</f>
-        <v>5.2820475770080098</v>
+        <v>19.656193922185214</v>
       </c>
       <c r="W13" s="3">
         <f>AVERAGE('[2]Csr, Summer'!W$2:W$6)</f>
-        <v>5.3796051839712176</v>
+        <v>20.019237081697867</v>
       </c>
       <c r="X13" s="3">
         <f>AVERAGE('[2]Csr, Summer'!X$2:X$6)</f>
-        <v>5.1775215695474284</v>
+        <v>19.267219108421653</v>
       </c>
       <c r="Y13" s="3">
         <f>AVERAGE('[2]Csr, Summer'!Y$2:Y$6)</f>
-        <v>10.801020770926666</v>
+        <v>40.194064088901158</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
@@ -46296,99 +46296,99 @@
       </c>
       <c r="B14" s="3">
         <f>AVERAGE('[2]Csr, Summer'!B$2:B$6)</f>
-        <v>9.8347359019577425</v>
+        <v>36.598208032775815</v>
       </c>
       <c r="C14" s="3">
         <f>AVERAGE('[2]Csr, Summer'!C$2:C$6)</f>
-        <v>13.987902598391482</v>
+        <v>52.053473966314584</v>
       </c>
       <c r="D14" s="3">
         <f>AVERAGE('[2]Csr, Summer'!D$2:D$6)</f>
-        <v>9.0310470445941693</v>
+        <v>33.607423909171551</v>
       </c>
       <c r="E14" s="3">
         <f>AVERAGE('[2]Csr, Summer'!E$2:E$6)</f>
-        <v>9.251713060344283</v>
+        <v>34.428592960450182</v>
       </c>
       <c r="F14" s="3">
         <f>AVERAGE('[2]Csr, Summer'!F$2:F$6)</f>
-        <v>9.4514738746022822</v>
+        <v>35.171967048976093</v>
       </c>
       <c r="G14" s="3">
         <f>AVERAGE('[2]Csr, Summer'!G$2:G$6)</f>
-        <v>9.3306882659811663</v>
+        <v>34.722485041960418</v>
       </c>
       <c r="H14" s="3">
         <f>AVERAGE('[2]Csr, Summer'!H$2:H$6)</f>
-        <v>12.624418901072351</v>
+        <v>46.979513617887704</v>
       </c>
       <c r="I14" s="3">
         <f>AVERAGE('[2]Csr, Summer'!I$2:I$6)</f>
-        <v>11.416562814861198</v>
+        <v>42.484693547731005</v>
       </c>
       <c r="J14" s="3">
         <f>AVERAGE('[2]Csr, Summer'!J$2:J$6)</f>
-        <v>9.8811919052735568</v>
+        <v>36.771085727781838</v>
       </c>
       <c r="K14" s="3">
         <f>AVERAGE('[2]Csr, Summer'!K$2:K$6)</f>
-        <v>9.3655302684680262</v>
+        <v>34.852143313214945</v>
       </c>
       <c r="L14" s="3">
         <f>AVERAGE('[2]Csr, Summer'!L$2:L$6)</f>
-        <v>9.219193858023214</v>
+        <v>34.30757857394596</v>
       </c>
       <c r="M14" s="3">
         <f>AVERAGE('[2]Csr, Summer'!M$2:M$6)</f>
-        <v>8.9985278422731003</v>
+        <v>33.486409522667337</v>
       </c>
       <c r="N14" s="3">
         <f>AVERAGE('[2]Csr, Summer'!N$2:N$6)</f>
-        <v>8.3156245935306394</v>
+        <v>30.945107406078744</v>
       </c>
       <c r="O14" s="3">
         <f>AVERAGE('[2]Csr, Summer'!O$2:O$6)</f>
-        <v>7.5792969409749933</v>
+        <v>28.204995940233225</v>
       </c>
       <c r="P14" s="3">
         <f>AVERAGE('[2]Csr, Summer'!P$2:P$6)</f>
-        <v>8.2041301855726854</v>
+        <v>30.530200938064279</v>
       </c>
       <c r="Q14" s="3">
         <f>AVERAGE('[2]Csr, Summer'!Q$2:Q$6)</f>
-        <v>9.1797062552047723</v>
+        <v>34.160632533190842</v>
       </c>
       <c r="R14" s="3">
         <f>AVERAGE('[2]Csr, Summer'!R$2:R$6)</f>
-        <v>8.8777422336519827</v>
+        <v>33.036927515651669</v>
       </c>
       <c r="S14" s="3">
         <f>AVERAGE('[2]Csr, Summer'!S$2:S$6)</f>
-        <v>8.3644033970122429</v>
+        <v>31.126628985835072</v>
       </c>
       <c r="T14" s="3">
         <f>AVERAGE('[2]Csr, Summer'!T$2:T$6)</f>
-        <v>7.4190237295354367</v>
+        <v>27.608567892462428</v>
       </c>
       <c r="U14" s="3">
         <f>AVERAGE('[2]Csr, Summer'!U$2:U$6)</f>
-        <v>7.0752493049984153</v>
+        <v>26.329272949417838</v>
       </c>
       <c r="V14" s="3">
         <f>AVERAGE('[2]Csr, Summer'!V$2:V$6)</f>
-        <v>5.2820475770080098</v>
+        <v>19.656193922185214</v>
       </c>
       <c r="W14" s="3">
         <f>AVERAGE('[2]Csr, Summer'!W$2:W$6)</f>
-        <v>5.3796051839712176</v>
+        <v>20.019237081697867</v>
       </c>
       <c r="X14" s="3">
         <f>AVERAGE('[2]Csr, Summer'!X$2:X$6)</f>
-        <v>5.1775215695474284</v>
+        <v>19.267219108421653</v>
       </c>
       <c r="Y14" s="3">
         <f>AVERAGE('[2]Csr, Summer'!Y$2:Y$6)</f>
-        <v>10.801020770926666</v>
+        <v>40.194064088901158</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
@@ -46397,99 +46397,99 @@
       </c>
       <c r="B15" s="3">
         <f>AVERAGE('[2]Csr, Summer'!B$2:B$6)</f>
-        <v>9.8347359019577425</v>
+        <v>36.598208032775815</v>
       </c>
       <c r="C15" s="3">
         <f>AVERAGE('[2]Csr, Summer'!C$2:C$6)</f>
-        <v>13.987902598391482</v>
+        <v>52.053473966314584</v>
       </c>
       <c r="D15" s="3">
         <f>AVERAGE('[2]Csr, Summer'!D$2:D$6)</f>
-        <v>9.0310470445941693</v>
+        <v>33.607423909171551</v>
       </c>
       <c r="E15" s="3">
         <f>AVERAGE('[2]Csr, Summer'!E$2:E$6)</f>
-        <v>9.251713060344283</v>
+        <v>34.428592960450182</v>
       </c>
       <c r="F15" s="3">
         <f>AVERAGE('[2]Csr, Summer'!F$2:F$6)</f>
-        <v>9.4514738746022822</v>
+        <v>35.171967048976093</v>
       </c>
       <c r="G15" s="3">
         <f>AVERAGE('[2]Csr, Summer'!G$2:G$6)</f>
-        <v>9.3306882659811663</v>
+        <v>34.722485041960418</v>
       </c>
       <c r="H15" s="3">
         <f>AVERAGE('[2]Csr, Summer'!H$2:H$6)</f>
-        <v>12.624418901072351</v>
+        <v>46.979513617887704</v>
       </c>
       <c r="I15" s="3">
         <f>AVERAGE('[2]Csr, Summer'!I$2:I$6)</f>
-        <v>11.416562814861198</v>
+        <v>42.484693547731005</v>
       </c>
       <c r="J15" s="3">
         <f>AVERAGE('[2]Csr, Summer'!J$2:J$6)</f>
-        <v>9.8811919052735568</v>
+        <v>36.771085727781838</v>
       </c>
       <c r="K15" s="3">
         <f>AVERAGE('[2]Csr, Summer'!K$2:K$6)</f>
-        <v>9.3655302684680262</v>
+        <v>34.852143313214945</v>
       </c>
       <c r="L15" s="3">
         <f>AVERAGE('[2]Csr, Summer'!L$2:L$6)</f>
-        <v>9.219193858023214</v>
+        <v>34.30757857394596</v>
       </c>
       <c r="M15" s="3">
         <f>AVERAGE('[2]Csr, Summer'!M$2:M$6)</f>
-        <v>8.9985278422731003</v>
+        <v>33.486409522667337</v>
       </c>
       <c r="N15" s="3">
         <f>AVERAGE('[2]Csr, Summer'!N$2:N$6)</f>
-        <v>8.3156245935306394</v>
+        <v>30.945107406078744</v>
       </c>
       <c r="O15" s="3">
         <f>AVERAGE('[2]Csr, Summer'!O$2:O$6)</f>
-        <v>7.5792969409749933</v>
+        <v>28.204995940233225</v>
       </c>
       <c r="P15" s="3">
         <f>AVERAGE('[2]Csr, Summer'!P$2:P$6)</f>
-        <v>8.2041301855726854</v>
+        <v>30.530200938064279</v>
       </c>
       <c r="Q15" s="3">
         <f>AVERAGE('[2]Csr, Summer'!Q$2:Q$6)</f>
-        <v>9.1797062552047723</v>
+        <v>34.160632533190842</v>
       </c>
       <c r="R15" s="3">
         <f>AVERAGE('[2]Csr, Summer'!R$2:R$6)</f>
-        <v>8.8777422336519827</v>
+        <v>33.036927515651669</v>
       </c>
       <c r="S15" s="3">
         <f>AVERAGE('[2]Csr, Summer'!S$2:S$6)</f>
-        <v>8.3644033970122429</v>
+        <v>31.126628985835072</v>
       </c>
       <c r="T15" s="3">
         <f>AVERAGE('[2]Csr, Summer'!T$2:T$6)</f>
-        <v>7.4190237295354367</v>
+        <v>27.608567892462428</v>
       </c>
       <c r="U15" s="3">
         <f>AVERAGE('[2]Csr, Summer'!U$2:U$6)</f>
-        <v>7.0752493049984153</v>
+        <v>26.329272949417838</v>
       </c>
       <c r="V15" s="3">
         <f>AVERAGE('[2]Csr, Summer'!V$2:V$6)</f>
-        <v>5.2820475770080098</v>
+        <v>19.656193922185214</v>
       </c>
       <c r="W15" s="3">
         <f>AVERAGE('[2]Csr, Summer'!W$2:W$6)</f>
-        <v>5.3796051839712176</v>
+        <v>20.019237081697867</v>
       </c>
       <c r="X15" s="3">
         <f>AVERAGE('[2]Csr, Summer'!X$2:X$6)</f>
-        <v>5.1775215695474284</v>
+        <v>19.267219108421653</v>
       </c>
       <c r="Y15" s="3">
         <f>AVERAGE('[2]Csr, Summer'!Y$2:Y$6)</f>
-        <v>10.801020770926666</v>
+        <v>40.194064088901158</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
@@ -46498,99 +46498,99 @@
       </c>
       <c r="B16" s="3">
         <f>AVERAGE('[2]Csr, Summer'!B$2:B$6)</f>
-        <v>9.8347359019577425</v>
+        <v>36.598208032775815</v>
       </c>
       <c r="C16" s="3">
         <f>AVERAGE('[2]Csr, Summer'!C$2:C$6)</f>
-        <v>13.987902598391482</v>
+        <v>52.053473966314584</v>
       </c>
       <c r="D16" s="3">
         <f>AVERAGE('[2]Csr, Summer'!D$2:D$6)</f>
-        <v>9.0310470445941693</v>
+        <v>33.607423909171551</v>
       </c>
       <c r="E16" s="3">
         <f>AVERAGE('[2]Csr, Summer'!E$2:E$6)</f>
-        <v>9.251713060344283</v>
+        <v>34.428592960450182</v>
       </c>
       <c r="F16" s="3">
         <f>AVERAGE('[2]Csr, Summer'!F$2:F$6)</f>
-        <v>9.4514738746022822</v>
+        <v>35.171967048976093</v>
       </c>
       <c r="G16" s="3">
         <f>AVERAGE('[2]Csr, Summer'!G$2:G$6)</f>
-        <v>9.3306882659811663</v>
+        <v>34.722485041960418</v>
       </c>
       <c r="H16" s="3">
         <f>AVERAGE('[2]Csr, Summer'!H$2:H$6)</f>
-        <v>12.624418901072351</v>
+        <v>46.979513617887704</v>
       </c>
       <c r="I16" s="3">
         <f>AVERAGE('[2]Csr, Summer'!I$2:I$6)</f>
-        <v>11.416562814861198</v>
+        <v>42.484693547731005</v>
       </c>
       <c r="J16" s="3">
         <f>AVERAGE('[2]Csr, Summer'!J$2:J$6)</f>
-        <v>9.8811919052735568</v>
+        <v>36.771085727781838</v>
       </c>
       <c r="K16" s="3">
         <f>AVERAGE('[2]Csr, Summer'!K$2:K$6)</f>
-        <v>9.3655302684680262</v>
+        <v>34.852143313214945</v>
       </c>
       <c r="L16" s="3">
         <f>AVERAGE('[2]Csr, Summer'!L$2:L$6)</f>
-        <v>9.219193858023214</v>
+        <v>34.30757857394596</v>
       </c>
       <c r="M16" s="3">
         <f>AVERAGE('[2]Csr, Summer'!M$2:M$6)</f>
-        <v>8.9985278422731003</v>
+        <v>33.486409522667337</v>
       </c>
       <c r="N16" s="3">
         <f>AVERAGE('[2]Csr, Summer'!N$2:N$6)</f>
-        <v>8.3156245935306394</v>
+        <v>30.945107406078744</v>
       </c>
       <c r="O16" s="3">
         <f>AVERAGE('[2]Csr, Summer'!O$2:O$6)</f>
-        <v>7.5792969409749933</v>
+        <v>28.204995940233225</v>
       </c>
       <c r="P16" s="3">
         <f>AVERAGE('[2]Csr, Summer'!P$2:P$6)</f>
-        <v>8.2041301855726854</v>
+        <v>30.530200938064279</v>
       </c>
       <c r="Q16" s="3">
         <f>AVERAGE('[2]Csr, Summer'!Q$2:Q$6)</f>
-        <v>9.1797062552047723</v>
+        <v>34.160632533190842</v>
       </c>
       <c r="R16" s="3">
         <f>AVERAGE('[2]Csr, Summer'!R$2:R$6)</f>
-        <v>8.8777422336519827</v>
+        <v>33.036927515651669</v>
       </c>
       <c r="S16" s="3">
         <f>AVERAGE('[2]Csr, Summer'!S$2:S$6)</f>
-        <v>8.3644033970122429</v>
+        <v>31.126628985835072</v>
       </c>
       <c r="T16" s="3">
         <f>AVERAGE('[2]Csr, Summer'!T$2:T$6)</f>
-        <v>7.4190237295354367</v>
+        <v>27.608567892462428</v>
       </c>
       <c r="U16" s="3">
         <f>AVERAGE('[2]Csr, Summer'!U$2:U$6)</f>
-        <v>7.0752493049984153</v>
+        <v>26.329272949417838</v>
       </c>
       <c r="V16" s="3">
         <f>AVERAGE('[2]Csr, Summer'!V$2:V$6)</f>
-        <v>5.2820475770080098</v>
+        <v>19.656193922185214</v>
       </c>
       <c r="W16" s="3">
         <f>AVERAGE('[2]Csr, Summer'!W$2:W$6)</f>
-        <v>5.3796051839712176</v>
+        <v>20.019237081697867</v>
       </c>
       <c r="X16" s="3">
         <f>AVERAGE('[2]Csr, Summer'!X$2:X$6)</f>
-        <v>5.1775215695474284</v>
+        <v>19.267219108421653</v>
       </c>
       <c r="Y16" s="3">
         <f>AVERAGE('[2]Csr, Summer'!Y$2:Y$6)</f>
-        <v>10.801020770926666</v>
+        <v>40.194064088901158</v>
       </c>
     </row>
   </sheetData>
@@ -51625,8 +51625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CE9875A-D5F3-4037-ABBA-BC5732E3F827}">
   <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
